--- a/data/MLP_Actual_Pred_XH.xlsx
+++ b/data/MLP_Actual_Pred_XH.xlsx
@@ -500,37 +500,37 @@
         <v>6.4</v>
       </c>
       <c r="B2" t="n">
-        <v>6.417691230773926</v>
+        <v>6.175791263580322</v>
       </c>
       <c r="C2" t="n">
         <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>7.700543403625488</v>
+        <v>6.777966499328613</v>
       </c>
       <c r="E2" t="n">
         <v>4</v>
       </c>
       <c r="F2" t="n">
-        <v>5.737685203552246</v>
+        <v>5.470508098602295</v>
       </c>
       <c r="G2" t="n">
         <v>7.25</v>
       </c>
       <c r="H2" t="n">
-        <v>7.42890453338623</v>
+        <v>6.631767272949219</v>
       </c>
       <c r="I2" t="n">
         <v>8</v>
       </c>
       <c r="J2" t="n">
-        <v>9.314323425292969</v>
+        <v>7.660562515258789</v>
       </c>
       <c r="K2" t="n">
         <v>4</v>
       </c>
       <c r="L2" t="n">
-        <v>4.782496929168701</v>
+        <v>4.414863109588623</v>
       </c>
     </row>
     <row r="3">
@@ -538,37 +538,37 @@
         <v>8.199999999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>7.455334663391113</v>
+        <v>7.307756900787354</v>
       </c>
       <c r="C3" t="n">
         <v>8.5</v>
       </c>
       <c r="D3" t="n">
-        <v>8.097997665405273</v>
+        <v>7.828857421875</v>
       </c>
       <c r="E3" t="n">
         <v>8.25</v>
       </c>
       <c r="F3" t="n">
-        <v>8.089997291564941</v>
+        <v>7.336846828460693</v>
       </c>
       <c r="G3" t="n">
         <v>7.5</v>
       </c>
       <c r="H3" t="n">
-        <v>8.40760612487793</v>
+        <v>7.436752319335938</v>
       </c>
       <c r="I3" t="n">
         <v>8.75</v>
       </c>
       <c r="J3" t="n">
-        <v>9.613207817077637</v>
+        <v>8.571979522705078</v>
       </c>
       <c r="K3" t="n">
         <v>6.8</v>
       </c>
       <c r="L3" t="n">
-        <v>7.418715476989746</v>
+        <v>7.510566234588623</v>
       </c>
     </row>
     <row r="4">
@@ -576,37 +576,37 @@
         <v>6.6</v>
       </c>
       <c r="B4" t="n">
-        <v>7.744961738586426</v>
+        <v>6.792515277862549</v>
       </c>
       <c r="C4" t="n">
         <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>7.912010192871094</v>
+        <v>7.607672691345215</v>
       </c>
       <c r="E4" t="n">
         <v>6.25</v>
       </c>
       <c r="F4" t="n">
-        <v>7.986242294311523</v>
+        <v>6.435572624206543</v>
       </c>
       <c r="G4" t="n">
         <v>7.25</v>
       </c>
       <c r="H4" t="n">
-        <v>8.587458610534668</v>
+        <v>7.301633834838867</v>
       </c>
       <c r="I4" t="n">
         <v>8.5</v>
       </c>
       <c r="J4" t="n">
-        <v>9.736529350280762</v>
+        <v>8.519962310791016</v>
       </c>
       <c r="K4" t="n">
         <v>5.4</v>
       </c>
       <c r="L4" t="n">
-        <v>5.825661659240723</v>
+        <v>5.450369358062744</v>
       </c>
     </row>
     <row r="5">
@@ -614,37 +614,37 @@
         <v>3.8</v>
       </c>
       <c r="B5" t="n">
-        <v>5.926165580749512</v>
+        <v>5.591384410858154</v>
       </c>
       <c r="C5" t="n">
         <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>6.847297668457031</v>
+        <v>6.494770526885986</v>
       </c>
       <c r="E5" t="n">
         <v>4.75</v>
       </c>
       <c r="F5" t="n">
-        <v>2.067777633666992</v>
+        <v>4.57640552520752</v>
       </c>
       <c r="G5" t="n">
         <v>7.5</v>
       </c>
       <c r="H5" t="n">
-        <v>7.023717403411865</v>
+        <v>6.003406524658203</v>
       </c>
       <c r="I5" t="n">
         <v>7.75</v>
       </c>
       <c r="J5" t="n">
-        <v>9.07150936126709</v>
+        <v>7.434436798095703</v>
       </c>
       <c r="K5" t="n">
         <v>6.6</v>
       </c>
       <c r="L5" t="n">
-        <v>5.841441631317139</v>
+        <v>6.15433931350708</v>
       </c>
     </row>
     <row r="6">
@@ -652,37 +652,37 @@
         <v>8.6</v>
       </c>
       <c r="B6" t="n">
-        <v>7.355372905731201</v>
+        <v>7.115746974945068</v>
       </c>
       <c r="C6" t="n">
         <v>8.25</v>
       </c>
       <c r="D6" t="n">
-        <v>7.962746143341064</v>
+        <v>7.531469345092773</v>
       </c>
       <c r="E6" t="n">
         <v>8.75</v>
       </c>
       <c r="F6" t="n">
-        <v>8.606524467468262</v>
+        <v>7.187578201293945</v>
       </c>
       <c r="G6" t="n">
         <v>8.25</v>
       </c>
       <c r="H6" t="n">
-        <v>8.559300422668457</v>
+        <v>7.770118713378906</v>
       </c>
       <c r="I6" t="n">
         <v>9.5</v>
       </c>
       <c r="J6" t="n">
-        <v>9.756878852844238</v>
+        <v>8.838571548461914</v>
       </c>
       <c r="K6" t="n">
         <v>5.6</v>
       </c>
       <c r="L6" t="n">
-        <v>5.106095790863037</v>
+        <v>5.55251407623291</v>
       </c>
     </row>
     <row r="7">
@@ -690,37 +690,37 @@
         <v>5.8</v>
       </c>
       <c r="B7" t="n">
-        <v>6.945188999176025</v>
+        <v>5.992107391357422</v>
       </c>
       <c r="C7" t="n">
         <v>7</v>
       </c>
       <c r="D7" t="n">
-        <v>7.646425247192383</v>
+        <v>6.977237701416016</v>
       </c>
       <c r="E7" t="n">
         <v>7.5</v>
       </c>
       <c r="F7" t="n">
-        <v>5.804960250854492</v>
+        <v>5.366275310516357</v>
       </c>
       <c r="G7" t="n">
         <v>8.5</v>
       </c>
       <c r="H7" t="n">
-        <v>7.637363433837891</v>
+        <v>6.537128448486328</v>
       </c>
       <c r="I7" t="n">
         <v>8.75</v>
       </c>
       <c r="J7" t="n">
-        <v>9.367793083190918</v>
+        <v>7.765069961547852</v>
       </c>
       <c r="K7" t="n">
         <v>4.4</v>
       </c>
       <c r="L7" t="n">
-        <v>4.565786361694336</v>
+        <v>4.452286243438721</v>
       </c>
     </row>
     <row r="8">
@@ -728,37 +728,37 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>6.06498908996582</v>
+        <v>7.102304935455322</v>
       </c>
       <c r="C8" t="n">
         <v>8</v>
       </c>
       <c r="D8" t="n">
-        <v>7.672709941864014</v>
+        <v>7.81352424621582</v>
       </c>
       <c r="E8" t="n">
         <v>6</v>
       </c>
       <c r="F8" t="n">
-        <v>5.034422874450684</v>
+        <v>7.321418285369873</v>
       </c>
       <c r="G8" t="n">
         <v>7.75</v>
       </c>
       <c r="H8" t="n">
-        <v>7.129240036010742</v>
+        <v>7.669079780578613</v>
       </c>
       <c r="I8" t="n">
         <v>8.5</v>
       </c>
       <c r="J8" t="n">
-        <v>8.817062377929688</v>
+        <v>9.012354850769043</v>
       </c>
       <c r="K8" t="n">
         <v>6</v>
       </c>
       <c r="L8" t="n">
-        <v>6.990594387054443</v>
+        <v>7.105597019195557</v>
       </c>
     </row>
     <row r="9">
@@ -766,37 +766,37 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>7.381723880767822</v>
+        <v>6.80055046081543</v>
       </c>
       <c r="C9" t="n">
         <v>8</v>
       </c>
       <c r="D9" t="n">
-        <v>8.360198020935059</v>
+        <v>7.65583324432373</v>
       </c>
       <c r="E9" t="n">
         <v>8.5</v>
       </c>
       <c r="F9" t="n">
-        <v>8.182958602905273</v>
+        <v>6.55000114440918</v>
       </c>
       <c r="G9" t="n">
         <v>7</v>
       </c>
       <c r="H9" t="n">
-        <v>8.425815582275391</v>
+        <v>7.275866508483887</v>
       </c>
       <c r="I9" t="n">
         <v>8.5</v>
       </c>
       <c r="J9" t="n">
-        <v>9.726408958435059</v>
+        <v>8.52653980255127</v>
       </c>
       <c r="K9" t="n">
         <v>6</v>
       </c>
       <c r="L9" t="n">
-        <v>6.771953582763672</v>
+        <v>5.786837100982666</v>
       </c>
     </row>
     <row r="10">
@@ -804,37 +804,37 @@
         <v>6</v>
       </c>
       <c r="B10" t="n">
-        <v>6.933102130889893</v>
+        <v>6.868069171905518</v>
       </c>
       <c r="C10" t="n">
         <v>6.75</v>
       </c>
       <c r="D10" t="n">
-        <v>8.063200950622559</v>
+        <v>7.754039764404297</v>
       </c>
       <c r="E10" t="n">
         <v>8.5</v>
       </c>
       <c r="F10" t="n">
-        <v>7.2836594581604</v>
+        <v>6.701035976409912</v>
       </c>
       <c r="G10" t="n">
         <v>7.5</v>
       </c>
       <c r="H10" t="n">
-        <v>8.050731658935547</v>
+        <v>7.402651786804199</v>
       </c>
       <c r="I10" t="n">
         <v>9</v>
       </c>
       <c r="J10" t="n">
-        <v>9.508217811584473</v>
+        <v>8.682246208190918</v>
       </c>
       <c r="K10" t="n">
         <v>4.4</v>
       </c>
       <c r="L10" t="n">
-        <v>5.397116184234619</v>
+        <v>5.800200939178467</v>
       </c>
     </row>
     <row r="11">
@@ -842,37 +842,37 @@
         <v>5.8</v>
       </c>
       <c r="B11" t="n">
-        <v>6.310709476470947</v>
+        <v>6.403664588928223</v>
       </c>
       <c r="C11" t="n">
         <v>8.5</v>
       </c>
       <c r="D11" t="n">
-        <v>7.340773582458496</v>
+        <v>7.086548805236816</v>
       </c>
       <c r="E11" t="n">
         <v>6.75</v>
       </c>
       <c r="F11" t="n">
-        <v>6.477256774902344</v>
+        <v>6.317961692810059</v>
       </c>
       <c r="G11" t="n">
         <v>8.25</v>
       </c>
       <c r="H11" t="n">
-        <v>7.634727001190186</v>
+        <v>6.991629600524902</v>
       </c>
       <c r="I11" t="n">
         <v>9.25</v>
       </c>
       <c r="J11" t="n">
-        <v>9.237077713012695</v>
+        <v>8.138677597045898</v>
       </c>
       <c r="K11" t="n">
         <v>6</v>
       </c>
       <c r="L11" t="n">
-        <v>4.435478687286377</v>
+        <v>5.241963386535645</v>
       </c>
     </row>
     <row r="12">
@@ -880,37 +880,37 @@
         <v>7.4</v>
       </c>
       <c r="B12" t="n">
-        <v>6.348000049591064</v>
+        <v>6.323444843292236</v>
       </c>
       <c r="C12" t="n">
         <v>7.25</v>
       </c>
       <c r="D12" t="n">
-        <v>7.69264554977417</v>
+        <v>7.361257553100586</v>
       </c>
       <c r="E12" t="n">
         <v>6</v>
       </c>
       <c r="F12" t="n">
-        <v>5.14139986038208</v>
+        <v>5.519216537475586</v>
       </c>
       <c r="G12" t="n">
         <v>8</v>
       </c>
       <c r="H12" t="n">
-        <v>7.371216773986816</v>
+        <v>6.854991912841797</v>
       </c>
       <c r="I12" t="n">
         <v>9.75</v>
       </c>
       <c r="J12" t="n">
-        <v>9.273054122924805</v>
+        <v>8.228163719177246</v>
       </c>
       <c r="K12" t="n">
         <v>5.2</v>
       </c>
       <c r="L12" t="n">
-        <v>4.718808174133301</v>
+        <v>5.291751384735107</v>
       </c>
     </row>
     <row r="13">
@@ -918,37 +918,37 @@
         <v>4</v>
       </c>
       <c r="B13" t="n">
-        <v>7.209401607513428</v>
+        <v>4.748350143432617</v>
       </c>
       <c r="C13" t="n">
         <v>7</v>
       </c>
       <c r="D13" t="n">
-        <v>8.512097358703613</v>
+        <v>6.511778354644775</v>
       </c>
       <c r="E13" t="n">
         <v>4</v>
       </c>
       <c r="F13" t="n">
-        <v>6.70766544342041</v>
+        <v>4.193064212799072</v>
       </c>
       <c r="G13" t="n">
         <v>6.25</v>
       </c>
       <c r="H13" t="n">
-        <v>7.849850177764893</v>
+        <v>5.876101493835449</v>
       </c>
       <c r="I13" t="n">
         <v>8.5</v>
       </c>
       <c r="J13" t="n">
-        <v>9.534729957580566</v>
+        <v>7.55561637878418</v>
       </c>
       <c r="K13" t="n">
         <v>1.6</v>
       </c>
       <c r="L13" t="n">
-        <v>5.592811584472656</v>
+        <v>3.222775936126709</v>
       </c>
     </row>
     <row r="14">
@@ -956,37 +956,37 @@
         <v>6.2</v>
       </c>
       <c r="B14" t="n">
-        <v>6.959009647369385</v>
+        <v>6.86133861541748</v>
       </c>
       <c r="C14" t="n">
         <v>7.5</v>
       </c>
       <c r="D14" t="n">
-        <v>7.821676254272461</v>
+        <v>7.486382961273193</v>
       </c>
       <c r="E14" t="n">
         <v>6.25</v>
       </c>
       <c r="F14" t="n">
-        <v>7.470834255218506</v>
+        <v>6.921566009521484</v>
       </c>
       <c r="G14" t="n">
         <v>7.5</v>
       </c>
       <c r="H14" t="n">
-        <v>7.805965900421143</v>
+        <v>7.401431083679199</v>
       </c>
       <c r="I14" t="n">
         <v>8.25</v>
       </c>
       <c r="J14" t="n">
-        <v>9.154021263122559</v>
+        <v>8.563301086425781</v>
       </c>
       <c r="K14" t="n">
         <v>5.6</v>
       </c>
       <c r="L14" t="n">
-        <v>5.416332721710205</v>
+        <v>5.928043842315674</v>
       </c>
     </row>
     <row r="15">
@@ -994,37 +994,37 @@
         <v>8</v>
       </c>
       <c r="B15" t="n">
-        <v>7.917006492614746</v>
+        <v>7.499405860900879</v>
       </c>
       <c r="C15" t="n">
         <v>9</v>
       </c>
       <c r="D15" t="n">
-        <v>8.221358299255371</v>
+        <v>8.173603057861328</v>
       </c>
       <c r="E15" t="n">
         <v>5.5</v>
       </c>
       <c r="F15" t="n">
-        <v>8.165958404541016</v>
+        <v>6.978644371032715</v>
       </c>
       <c r="G15" t="n">
         <v>7.5</v>
       </c>
       <c r="H15" t="n">
-        <v>8.486615180969238</v>
+        <v>7.741397857666016</v>
       </c>
       <c r="I15" t="n">
         <v>9</v>
       </c>
       <c r="J15" t="n">
-        <v>9.77912712097168</v>
+        <v>8.917984008789062</v>
       </c>
       <c r="K15" t="n">
         <v>7.4</v>
       </c>
       <c r="L15" t="n">
-        <v>6.313984394073486</v>
+        <v>6.469714164733887</v>
       </c>
     </row>
     <row r="16">
@@ -1032,37 +1032,37 @@
         <v>5.8</v>
       </c>
       <c r="B16" t="n">
-        <v>7.123215198516846</v>
+        <v>6.228528022766113</v>
       </c>
       <c r="C16" t="n">
         <v>7</v>
       </c>
       <c r="D16" t="n">
-        <v>6.909323692321777</v>
+        <v>7.180912017822266</v>
       </c>
       <c r="E16" t="n">
         <v>7.5</v>
       </c>
       <c r="F16" t="n">
-        <v>7.366056442260742</v>
+        <v>6.345268249511719</v>
       </c>
       <c r="G16" t="n">
         <v>9.25</v>
       </c>
       <c r="H16" t="n">
-        <v>8.600822448730469</v>
+        <v>6.996212959289551</v>
       </c>
       <c r="I16" t="n">
         <v>9.75</v>
       </c>
       <c r="J16" t="n">
-        <v>9.806074142456055</v>
+        <v>8.329834938049316</v>
       </c>
       <c r="K16" t="n">
         <v>6.6</v>
       </c>
       <c r="L16" t="n">
-        <v>5.778183937072754</v>
+        <v>5.341138362884521</v>
       </c>
     </row>
     <row r="17">
@@ -1070,37 +1070,37 @@
         <v>7.4</v>
       </c>
       <c r="B17" t="n">
-        <v>5.747749328613281</v>
+        <v>5.88401460647583</v>
       </c>
       <c r="C17" t="n">
         <v>5.75</v>
       </c>
       <c r="D17" t="n">
-        <v>6.854668140411377</v>
+        <v>6.644035339355469</v>
       </c>
       <c r="E17" t="n">
         <v>4.25</v>
       </c>
       <c r="F17" t="n">
-        <v>4.091102600097656</v>
+        <v>4.608172416687012</v>
       </c>
       <c r="G17" t="n">
         <v>7.75</v>
       </c>
       <c r="H17" t="n">
-        <v>6.937191009521484</v>
+        <v>6.448701858520508</v>
       </c>
       <c r="I17" t="n">
         <v>7.75</v>
       </c>
       <c r="J17" t="n">
-        <v>8.856392860412598</v>
+        <v>7.771332740783691</v>
       </c>
       <c r="K17" t="n">
         <v>6</v>
       </c>
       <c r="L17" t="n">
-        <v>4.361651420593262</v>
+        <v>5.082650184631348</v>
       </c>
     </row>
     <row r="18">
@@ -1108,37 +1108,37 @@
         <v>3.6</v>
       </c>
       <c r="B18" t="n">
-        <v>6.657224655151367</v>
+        <v>5.617626667022705</v>
       </c>
       <c r="C18" t="n">
         <v>7.5</v>
       </c>
       <c r="D18" t="n">
-        <v>7.828493595123291</v>
+        <v>6.570542812347412</v>
       </c>
       <c r="E18" t="n">
         <v>5.5</v>
       </c>
       <c r="F18" t="n">
-        <v>6.715401649475098</v>
+        <v>5.809865474700928</v>
       </c>
       <c r="G18" t="n">
         <v>7.5</v>
       </c>
       <c r="H18" t="n">
-        <v>8.022910118103027</v>
+        <v>6.589215278625488</v>
       </c>
       <c r="I18" t="n">
         <v>7</v>
       </c>
       <c r="J18" t="n">
-        <v>9.748212814331055</v>
+        <v>7.852144241333008</v>
       </c>
       <c r="K18" t="n">
         <v>2.8</v>
       </c>
       <c r="L18" t="n">
-        <v>4.504894733428955</v>
+        <v>4.073958873748779</v>
       </c>
     </row>
     <row r="19">
@@ -1146,37 +1146,37 @@
         <v>7.8</v>
       </c>
       <c r="B19" t="n">
-        <v>5.710899829864502</v>
+        <v>5.975351810455322</v>
       </c>
       <c r="C19" t="n">
         <v>7</v>
       </c>
       <c r="D19" t="n">
-        <v>7.199692249298096</v>
+        <v>6.62345027923584</v>
       </c>
       <c r="E19" t="n">
         <v>3.25</v>
       </c>
       <c r="F19" t="n">
-        <v>3.746519804000854</v>
+        <v>5.30672550201416</v>
       </c>
       <c r="G19" t="n">
         <v>6</v>
       </c>
       <c r="H19" t="n">
-        <v>6.480716228485107</v>
+        <v>6.425032615661621</v>
       </c>
       <c r="I19" t="n">
         <v>7.5</v>
       </c>
       <c r="J19" t="n">
-        <v>8.451459884643555</v>
+        <v>7.46812629699707</v>
       </c>
       <c r="K19" t="n">
         <v>3.6</v>
       </c>
       <c r="L19" t="n">
-        <v>4.059274196624756</v>
+        <v>4.395548343658447</v>
       </c>
     </row>
     <row r="20">
@@ -1184,37 +1184,37 @@
         <v>7.2</v>
       </c>
       <c r="B20" t="n">
-        <v>6.779601573944092</v>
+        <v>6.380754470825195</v>
       </c>
       <c r="C20" t="n">
         <v>6.5</v>
       </c>
       <c r="D20" t="n">
-        <v>7.929317951202393</v>
+        <v>6.980620384216309</v>
       </c>
       <c r="E20" t="n">
         <v>6.75</v>
       </c>
       <c r="F20" t="n">
-        <v>6.664731979370117</v>
+        <v>5.96321439743042</v>
       </c>
       <c r="G20" t="n">
         <v>5.5</v>
       </c>
       <c r="H20" t="n">
-        <v>7.710268974304199</v>
+        <v>6.960574150085449</v>
       </c>
       <c r="I20" t="n">
         <v>8.75</v>
       </c>
       <c r="J20" t="n">
-        <v>9.41222095489502</v>
+        <v>8.02968692779541</v>
       </c>
       <c r="K20" t="n">
         <v>5.2</v>
       </c>
       <c r="L20" t="n">
-        <v>4.75380802154541</v>
+        <v>4.620408535003662</v>
       </c>
     </row>
     <row r="21">
@@ -1222,37 +1222,37 @@
         <v>7.8</v>
       </c>
       <c r="B21" t="n">
-        <v>6.982510566711426</v>
+        <v>6.739421844482422</v>
       </c>
       <c r="C21" t="n">
         <v>6.25</v>
       </c>
       <c r="D21" t="n">
-        <v>7.206450939178467</v>
+        <v>7.203776359558105</v>
       </c>
       <c r="E21" t="n">
         <v>5.5</v>
       </c>
       <c r="F21" t="n">
-        <v>5.307449817657471</v>
+        <v>6.132071018218994</v>
       </c>
       <c r="G21" t="n">
         <v>7</v>
       </c>
       <c r="H21" t="n">
-        <v>7.545360088348389</v>
+        <v>7.226454734802246</v>
       </c>
       <c r="I21" t="n">
         <v>9</v>
       </c>
       <c r="J21" t="n">
-        <v>9.240146636962891</v>
+        <v>8.368358612060547</v>
       </c>
       <c r="K21" t="n">
         <v>5.8</v>
       </c>
       <c r="L21" t="n">
-        <v>4.879229068756104</v>
+        <v>5.760682582855225</v>
       </c>
     </row>
     <row r="22">
@@ -1260,37 +1260,37 @@
         <v>6.2</v>
       </c>
       <c r="B22" t="n">
-        <v>5.961853981018066</v>
+        <v>5.895911693572998</v>
       </c>
       <c r="C22" t="n">
         <v>7</v>
       </c>
       <c r="D22" t="n">
-        <v>6.625610828399658</v>
+        <v>6.792856216430664</v>
       </c>
       <c r="E22" t="n">
         <v>3.25</v>
       </c>
       <c r="F22" t="n">
-        <v>2.164793014526367</v>
+        <v>4.279582500457764</v>
       </c>
       <c r="G22" t="n">
         <v>6.5</v>
       </c>
       <c r="H22" t="n">
-        <v>6.633080959320068</v>
+        <v>6.32274341583252</v>
       </c>
       <c r="I22" t="n">
         <v>7.25</v>
       </c>
       <c r="J22" t="n">
-        <v>8.651641845703125</v>
+        <v>7.721546173095703</v>
       </c>
       <c r="K22" t="n">
         <v>5.8</v>
       </c>
       <c r="L22" t="n">
-        <v>5.111927509307861</v>
+        <v>5.363738536834717</v>
       </c>
     </row>
     <row r="23">
@@ -1298,37 +1298,37 @@
         <v>6.4</v>
       </c>
       <c r="B23" t="n">
-        <v>5.763802051544189</v>
+        <v>6.147185325622559</v>
       </c>
       <c r="C23" t="n">
         <v>7</v>
       </c>
       <c r="D23" t="n">
-        <v>7.274401664733887</v>
+        <v>7.448803901672363</v>
       </c>
       <c r="E23" t="n">
         <v>4.5</v>
       </c>
       <c r="F23" t="n">
-        <v>3.707340002059937</v>
+        <v>5.371157169342041</v>
       </c>
       <c r="G23" t="n">
         <v>5.25</v>
       </c>
       <c r="H23" t="n">
-        <v>6.892543315887451</v>
+        <v>6.682040214538574</v>
       </c>
       <c r="I23" t="n">
         <v>9</v>
       </c>
       <c r="J23" t="n">
-        <v>8.87242603302002</v>
+        <v>8.285903930664062</v>
       </c>
       <c r="K23" t="n">
         <v>5.4</v>
       </c>
       <c r="L23" t="n">
-        <v>5.79918384552002</v>
+        <v>6.157204151153564</v>
       </c>
     </row>
     <row r="24">
@@ -1336,37 +1336,37 @@
         <v>5</v>
       </c>
       <c r="B24" t="n">
-        <v>7.6123366355896</v>
+        <v>7.233842372894287</v>
       </c>
       <c r="C24" t="n">
         <v>5.75</v>
       </c>
       <c r="D24" t="n">
-        <v>8.120744705200195</v>
+        <v>7.914385318756104</v>
       </c>
       <c r="E24" t="n">
         <v>3.75</v>
       </c>
       <c r="F24" t="n">
-        <v>8.625456809997559</v>
+        <v>7.294590473175049</v>
       </c>
       <c r="G24" t="n">
         <v>6.5</v>
       </c>
       <c r="H24" t="n">
-        <v>8.742762565612793</v>
+        <v>7.56424617767334</v>
       </c>
       <c r="I24" t="n">
         <v>7.5</v>
       </c>
       <c r="J24" t="n">
-        <v>9.80660343170166</v>
+        <v>8.781959533691406</v>
       </c>
       <c r="K24" t="n">
         <v>3.4</v>
       </c>
       <c r="L24" t="n">
-        <v>6.816100597381592</v>
+        <v>6.962806224822998</v>
       </c>
     </row>
     <row r="25">
@@ -1374,37 +1374,37 @@
         <v>6.2</v>
       </c>
       <c r="B25" t="n">
-        <v>6.967504978179932</v>
+        <v>6.117587089538574</v>
       </c>
       <c r="C25" t="n">
         <v>7.75</v>
       </c>
       <c r="D25" t="n">
-        <v>7.715760707855225</v>
+        <v>6.981013298034668</v>
       </c>
       <c r="E25" t="n">
         <v>6.25</v>
       </c>
       <c r="F25" t="n">
-        <v>5.92034912109375</v>
+        <v>6.021936893463135</v>
       </c>
       <c r="G25" t="n">
         <v>5.75</v>
       </c>
       <c r="H25" t="n">
-        <v>7.467089176177979</v>
+        <v>6.742894172668457</v>
       </c>
       <c r="I25" t="n">
         <v>8.5</v>
       </c>
       <c r="J25" t="n">
-        <v>9.265913009643555</v>
+        <v>7.965558052062988</v>
       </c>
       <c r="K25" t="n">
         <v>4.6</v>
       </c>
       <c r="L25" t="n">
-        <v>4.769405841827393</v>
+        <v>5.052843570709229</v>
       </c>
     </row>
     <row r="26">
@@ -1412,37 +1412,37 @@
         <v>8.4</v>
       </c>
       <c r="B26" t="n">
-        <v>7.400667190551758</v>
+        <v>7.041156768798828</v>
       </c>
       <c r="C26" t="n">
         <v>7.25</v>
       </c>
       <c r="D26" t="n">
-        <v>8.01573657989502</v>
+        <v>7.748716354370117</v>
       </c>
       <c r="E26" t="n">
         <v>6</v>
       </c>
       <c r="F26" t="n">
-        <v>7.764105319976807</v>
+        <v>6.629630088806152</v>
       </c>
       <c r="G26" t="n">
         <v>8.25</v>
       </c>
       <c r="H26" t="n">
-        <v>8.260845184326172</v>
+        <v>7.504727363586426</v>
       </c>
       <c r="I26" t="n">
         <v>9.25</v>
       </c>
       <c r="J26" t="n">
-        <v>9.611472129821777</v>
+        <v>8.677574157714844</v>
       </c>
       <c r="K26" t="n">
         <v>4.8</v>
       </c>
       <c r="L26" t="n">
-        <v>5.525931835174561</v>
+        <v>5.596756935119629</v>
       </c>
     </row>
     <row r="27">
@@ -1450,37 +1450,37 @@
         <v>7.8</v>
       </c>
       <c r="B27" t="n">
-        <v>7.694414615631104</v>
+        <v>7.434457302093506</v>
       </c>
       <c r="C27" t="n">
         <v>7</v>
       </c>
       <c r="D27" t="n">
-        <v>7.926719665527344</v>
+        <v>8.186482429504395</v>
       </c>
       <c r="E27" t="n">
         <v>7.5</v>
       </c>
       <c r="F27" t="n">
-        <v>7.651824474334717</v>
+        <v>6.712021350860596</v>
       </c>
       <c r="G27" t="n">
         <v>7</v>
       </c>
       <c r="H27" t="n">
-        <v>8.297133445739746</v>
+        <v>7.735180854797363</v>
       </c>
       <c r="I27" t="n">
         <v>8</v>
       </c>
       <c r="J27" t="n">
-        <v>9.693840026855469</v>
+        <v>8.929162979125977</v>
       </c>
       <c r="K27" t="n">
         <v>6.6</v>
       </c>
       <c r="L27" t="n">
-        <v>5.535366058349609</v>
+        <v>5.951216697692871</v>
       </c>
     </row>
     <row r="28">
@@ -1488,37 +1488,37 @@
         <v>8.6</v>
       </c>
       <c r="B28" t="n">
-        <v>7.569143295288086</v>
+        <v>7.687558174133301</v>
       </c>
       <c r="C28" t="n">
         <v>8.75</v>
       </c>
       <c r="D28" t="n">
-        <v>8.361568450927734</v>
+        <v>7.945969581604004</v>
       </c>
       <c r="E28" t="n">
         <v>8.5</v>
       </c>
       <c r="F28" t="n">
-        <v>9.203957557678223</v>
+        <v>7.988613605499268</v>
       </c>
       <c r="G28" t="n">
         <v>8.5</v>
       </c>
       <c r="H28" t="n">
-        <v>8.616914749145508</v>
+        <v>8.607151985168457</v>
       </c>
       <c r="I28" t="n">
         <v>9.25</v>
       </c>
       <c r="J28" t="n">
-        <v>9.800689697265625</v>
+        <v>9.652355194091797</v>
       </c>
       <c r="K28" t="n">
         <v>5.2</v>
       </c>
       <c r="L28" t="n">
-        <v>5.123509407043457</v>
+        <v>5.300183773040771</v>
       </c>
     </row>
     <row r="29">
@@ -1526,37 +1526,37 @@
         <v>7</v>
       </c>
       <c r="B29" t="n">
-        <v>7.127275943756104</v>
+        <v>7.491693019866943</v>
       </c>
       <c r="C29" t="n">
         <v>8.25</v>
       </c>
       <c r="D29" t="n">
-        <v>7.575380325317383</v>
+        <v>7.853912353515625</v>
       </c>
       <c r="E29" t="n">
         <v>7</v>
       </c>
       <c r="F29" t="n">
-        <v>7.374963283538818</v>
+        <v>7.429497241973877</v>
       </c>
       <c r="G29" t="n">
         <v>8</v>
       </c>
       <c r="H29" t="n">
-        <v>8.465729713439941</v>
+        <v>7.928253173828125</v>
       </c>
       <c r="I29" t="n">
         <v>9.25</v>
       </c>
       <c r="J29" t="n">
-        <v>9.697403907775879</v>
+        <v>9.152385711669922</v>
       </c>
       <c r="K29" t="n">
         <v>8</v>
       </c>
       <c r="L29" t="n">
-        <v>7.038300037384033</v>
+        <v>7.533909320831299</v>
       </c>
     </row>
     <row r="30">
@@ -1564,37 +1564,37 @@
         <v>8</v>
       </c>
       <c r="B30" t="n">
-        <v>7.557468414306641</v>
+        <v>7.83811616897583</v>
       </c>
       <c r="C30" t="n">
         <v>8.75</v>
       </c>
       <c r="D30" t="n">
-        <v>8.056741714477539</v>
+        <v>8.419781684875488</v>
       </c>
       <c r="E30" t="n">
         <v>8</v>
       </c>
       <c r="F30" t="n">
-        <v>9.516554832458496</v>
+        <v>8.198905944824219</v>
       </c>
       <c r="G30" t="n">
         <v>7.75</v>
       </c>
       <c r="H30" t="n">
-        <v>9.108903884887695</v>
+        <v>8.100471496582031</v>
       </c>
       <c r="I30" t="n">
         <v>8.75</v>
       </c>
       <c r="J30" t="n">
-        <v>9.954062461853027</v>
+        <v>9.336138725280762</v>
       </c>
       <c r="K30" t="n">
         <v>7.8</v>
       </c>
       <c r="L30" t="n">
-        <v>8.641181945800781</v>
+        <v>8.046248435974121</v>
       </c>
     </row>
     <row r="31">
@@ -1602,37 +1602,37 @@
         <v>3.8</v>
       </c>
       <c r="B31" t="n">
-        <v>5.203756332397461</v>
+        <v>5.643678188323975</v>
       </c>
       <c r="C31" t="n">
         <v>5</v>
       </c>
       <c r="D31" t="n">
-        <v>7.065788269042969</v>
+        <v>6.542566299438477</v>
       </c>
       <c r="E31" t="n">
         <v>3.75</v>
       </c>
       <c r="F31" t="n">
-        <v>3.894906282424927</v>
+        <v>4.857815265655518</v>
       </c>
       <c r="G31" t="n">
         <v>6</v>
       </c>
       <c r="H31" t="n">
-        <v>6.317872524261475</v>
+        <v>6.031049728393555</v>
       </c>
       <c r="I31" t="n">
         <v>7.25</v>
       </c>
       <c r="J31" t="n">
-        <v>8.382656097412109</v>
+        <v>7.174015998840332</v>
       </c>
       <c r="K31" t="n">
         <v>4.6</v>
       </c>
       <c r="L31" t="n">
-        <v>3.979206800460815</v>
+        <v>4.39655590057373</v>
       </c>
     </row>
     <row r="32">
@@ -1640,37 +1640,37 @@
         <v>3.8</v>
       </c>
       <c r="B32" t="n">
-        <v>6.855420589447021</v>
+        <v>5.428405284881592</v>
       </c>
       <c r="C32" t="n">
         <v>7.25</v>
       </c>
       <c r="D32" t="n">
-        <v>8.577781677246094</v>
+        <v>7.506187438964844</v>
       </c>
       <c r="E32" t="n">
         <v>3.75</v>
       </c>
       <c r="F32" t="n">
-        <v>5.943889141082764</v>
+        <v>4.596427440643311</v>
       </c>
       <c r="G32" t="n">
         <v>5</v>
       </c>
       <c r="H32" t="n">
-        <v>7.518657207489014</v>
+        <v>6.259994506835938</v>
       </c>
       <c r="I32" t="n">
         <v>8</v>
       </c>
       <c r="J32" t="n">
-        <v>9.479546546936035</v>
+        <v>8.011475563049316</v>
       </c>
       <c r="K32" t="n">
         <v>4</v>
       </c>
       <c r="L32" t="n">
-        <v>4.769733905792236</v>
+        <v>3.689769506454468</v>
       </c>
     </row>
     <row r="33">
@@ -1678,37 +1678,37 @@
         <v>7.6</v>
       </c>
       <c r="B33" t="n">
-        <v>7.795963287353516</v>
+        <v>7.747676372528076</v>
       </c>
       <c r="C33" t="n">
         <v>9</v>
       </c>
       <c r="D33" t="n">
-        <v>8.319382667541504</v>
+        <v>8.446850776672363</v>
       </c>
       <c r="E33" t="n">
         <v>8.75</v>
       </c>
       <c r="F33" t="n">
-        <v>7.981044292449951</v>
+        <v>7.299812793731689</v>
       </c>
       <c r="G33" t="n">
         <v>8.25</v>
       </c>
       <c r="H33" t="n">
-        <v>8.289475440979004</v>
+        <v>7.900586128234863</v>
       </c>
       <c r="I33" t="n">
         <v>9</v>
       </c>
       <c r="J33" t="n">
-        <v>9.641288757324219</v>
+        <v>9.114852905273438</v>
       </c>
       <c r="K33" t="n">
         <v>5.8</v>
       </c>
       <c r="L33" t="n">
-        <v>6.433436870574951</v>
+        <v>7.097475528717041</v>
       </c>
     </row>
     <row r="34">
@@ -1716,37 +1716,37 @@
         <v>6.4</v>
       </c>
       <c r="B34" t="n">
-        <v>6.104586601257324</v>
+        <v>5.859433650970459</v>
       </c>
       <c r="C34" t="n">
         <v>5.5</v>
       </c>
       <c r="D34" t="n">
-        <v>6.01533317565918</v>
+        <v>6.291650772094727</v>
       </c>
       <c r="E34" t="n">
         <v>4.75</v>
       </c>
       <c r="F34" t="n">
-        <v>5.244439601898193</v>
+        <v>4.245046615600586</v>
       </c>
       <c r="G34" t="n">
         <v>6.5</v>
       </c>
       <c r="H34" t="n">
-        <v>7.80030632019043</v>
+        <v>6.314501762390137</v>
       </c>
       <c r="I34" t="n">
         <v>8.5</v>
       </c>
       <c r="J34" t="n">
-        <v>9.050317764282227</v>
+        <v>7.645041465759277</v>
       </c>
       <c r="K34" t="n">
         <v>6.6</v>
       </c>
       <c r="L34" t="n">
-        <v>6.10327672958374</v>
+        <v>6.154105186462402</v>
       </c>
     </row>
     <row r="35">
@@ -1754,37 +1754,37 @@
         <v>7.2</v>
       </c>
       <c r="B35" t="n">
-        <v>7.501457691192627</v>
+        <v>7.132120609283447</v>
       </c>
       <c r="C35" t="n">
         <v>8.25</v>
       </c>
       <c r="D35" t="n">
-        <v>8.308638572692871</v>
+        <v>7.922882080078125</v>
       </c>
       <c r="E35" t="n">
         <v>5.25</v>
       </c>
       <c r="F35" t="n">
-        <v>7.26743221282959</v>
+        <v>6.650954246520996</v>
       </c>
       <c r="G35" t="n">
         <v>7.25</v>
       </c>
       <c r="H35" t="n">
-        <v>7.921168804168701</v>
+        <v>7.369386672973633</v>
       </c>
       <c r="I35" t="n">
         <v>9</v>
       </c>
       <c r="J35" t="n">
-        <v>9.403403282165527</v>
+        <v>8.586782455444336</v>
       </c>
       <c r="K35" t="n">
         <v>5.4</v>
       </c>
       <c r="L35" t="n">
-        <v>5.87686824798584</v>
+        <v>6.393291473388672</v>
       </c>
     </row>
     <row r="36">
@@ -1792,37 +1792,37 @@
         <v>7.8</v>
       </c>
       <c r="B36" t="n">
-        <v>7.839605331420898</v>
+        <v>6.868681907653809</v>
       </c>
       <c r="C36" t="n">
         <v>8.25</v>
       </c>
       <c r="D36" t="n">
-        <v>8.330057144165039</v>
+        <v>8.216391563415527</v>
       </c>
       <c r="E36" t="n">
         <v>5</v>
       </c>
       <c r="F36" t="n">
-        <v>6.515007495880127</v>
+        <v>5.886344909667969</v>
       </c>
       <c r="G36" t="n">
         <v>7</v>
       </c>
       <c r="H36" t="n">
-        <v>8.21851634979248</v>
+        <v>7.135394096374512</v>
       </c>
       <c r="I36" t="n">
         <v>8.75</v>
       </c>
       <c r="J36" t="n">
-        <v>9.57373046875</v>
+        <v>8.583319664001465</v>
       </c>
       <c r="K36" t="n">
         <v>6.2</v>
       </c>
       <c r="L36" t="n">
-        <v>5.850634098052979</v>
+        <v>5.753406047821045</v>
       </c>
     </row>
     <row r="37">
@@ -1830,37 +1830,37 @@
         <v>8.199999999999999</v>
       </c>
       <c r="B37" t="n">
-        <v>7.34669017791748</v>
+        <v>7.312691211700439</v>
       </c>
       <c r="C37" t="n">
         <v>8.25</v>
       </c>
       <c r="D37" t="n">
-        <v>7.513504981994629</v>
+        <v>8.119546890258789</v>
       </c>
       <c r="E37" t="n">
         <v>5.5</v>
       </c>
       <c r="F37" t="n">
-        <v>6.24016809463501</v>
+        <v>6.483850479125977</v>
       </c>
       <c r="G37" t="n">
         <v>7.75</v>
       </c>
       <c r="H37" t="n">
-        <v>7.799071311950684</v>
+        <v>7.398700714111328</v>
       </c>
       <c r="I37" t="n">
         <v>8.25</v>
       </c>
       <c r="J37" t="n">
-        <v>9.336875915527344</v>
+        <v>8.627326011657715</v>
       </c>
       <c r="K37" t="n">
         <v>6.4</v>
       </c>
       <c r="L37" t="n">
-        <v>6.133882522583008</v>
+        <v>6.638824939727783</v>
       </c>
     </row>
     <row r="38">
@@ -1868,37 +1868,37 @@
         <v>6.2</v>
       </c>
       <c r="B38" t="n">
-        <v>7.48121166229248</v>
+        <v>7.019060611724854</v>
       </c>
       <c r="C38" t="n">
         <v>8</v>
       </c>
       <c r="D38" t="n">
-        <v>8.140210151672363</v>
+        <v>7.900448322296143</v>
       </c>
       <c r="E38" t="n">
         <v>7.75</v>
       </c>
       <c r="F38" t="n">
-        <v>8.678557395935059</v>
+        <v>6.719522476196289</v>
       </c>
       <c r="G38" t="n">
         <v>7</v>
       </c>
       <c r="H38" t="n">
-        <v>8.582010269165039</v>
+        <v>7.509064674377441</v>
       </c>
       <c r="I38" t="n">
         <v>8.25</v>
       </c>
       <c r="J38" t="n">
-        <v>9.664321899414062</v>
+        <v>8.783896446228027</v>
       </c>
       <c r="K38" t="n">
         <v>5.6</v>
       </c>
       <c r="L38" t="n">
-        <v>5.409850597381592</v>
+        <v>5.833470821380615</v>
       </c>
     </row>
     <row r="39">
@@ -1906,37 +1906,37 @@
         <v>6.8</v>
       </c>
       <c r="B39" t="n">
-        <v>6.929346561431885</v>
+        <v>6.522738456726074</v>
       </c>
       <c r="C39" t="n">
         <v>9.25</v>
       </c>
       <c r="D39" t="n">
-        <v>7.48262357711792</v>
+        <v>7.947600364685059</v>
       </c>
       <c r="E39" t="n">
         <v>7</v>
       </c>
       <c r="F39" t="n">
-        <v>4.921400547027588</v>
+        <v>5.749070644378662</v>
       </c>
       <c r="G39" t="n">
         <v>6.25</v>
       </c>
       <c r="H39" t="n">
-        <v>7.377089500427246</v>
+        <v>6.809915542602539</v>
       </c>
       <c r="I39" t="n">
         <v>9</v>
       </c>
       <c r="J39" t="n">
-        <v>9.136079788208008</v>
+        <v>8.295366287231445</v>
       </c>
       <c r="K39" t="n">
         <v>7</v>
       </c>
       <c r="L39" t="n">
-        <v>5.390730381011963</v>
+        <v>5.856016159057617</v>
       </c>
     </row>
     <row r="40">
@@ -1944,37 +1944,37 @@
         <v>7.6</v>
       </c>
       <c r="B40" t="n">
-        <v>7.717604637145996</v>
+        <v>7.678349494934082</v>
       </c>
       <c r="C40" t="n">
         <v>8.25</v>
       </c>
       <c r="D40" t="n">
-        <v>8.382621765136719</v>
+        <v>8.233768463134766</v>
       </c>
       <c r="E40" t="n">
         <v>7.5</v>
       </c>
       <c r="F40" t="n">
-        <v>7.581203937530518</v>
+        <v>7.677414417266846</v>
       </c>
       <c r="G40" t="n">
         <v>8</v>
       </c>
       <c r="H40" t="n">
-        <v>8.211179733276367</v>
+        <v>7.832950592041016</v>
       </c>
       <c r="I40" t="n">
         <v>8.5</v>
       </c>
       <c r="J40" t="n">
-        <v>9.540632247924805</v>
+        <v>9.008966445922852</v>
       </c>
       <c r="K40" t="n">
         <v>7.6</v>
       </c>
       <c r="L40" t="n">
-        <v>7.864675521850586</v>
+        <v>7.667891025543213</v>
       </c>
     </row>
     <row r="41">
@@ -1982,37 +1982,37 @@
         <v>8</v>
       </c>
       <c r="B41" t="n">
-        <v>7.437344074249268</v>
+        <v>7.015557289123535</v>
       </c>
       <c r="C41" t="n">
         <v>8.5</v>
       </c>
       <c r="D41" t="n">
-        <v>7.811614036560059</v>
+        <v>7.829362392425537</v>
       </c>
       <c r="E41" t="n">
         <v>7.25</v>
       </c>
       <c r="F41" t="n">
-        <v>7.685773372650146</v>
+        <v>6.836620807647705</v>
       </c>
       <c r="G41" t="n">
         <v>7.5</v>
       </c>
       <c r="H41" t="n">
-        <v>8.410533905029297</v>
+        <v>7.333882331848145</v>
       </c>
       <c r="I41" t="n">
         <v>10</v>
       </c>
       <c r="J41" t="n">
-        <v>9.663703918457031</v>
+        <v>8.584564208984375</v>
       </c>
       <c r="K41" t="n">
         <v>6.2</v>
       </c>
       <c r="L41" t="n">
-        <v>7.04116678237915</v>
+        <v>6.562212944030762</v>
       </c>
     </row>
     <row r="42">
@@ -2020,37 +2020,37 @@
         <v>8.199999999999999</v>
       </c>
       <c r="B42" t="n">
-        <v>7.091344833374023</v>
+        <v>6.532034397125244</v>
       </c>
       <c r="C42" t="n">
         <v>8</v>
       </c>
       <c r="D42" t="n">
-        <v>8.394786834716797</v>
+        <v>8.071282386779785</v>
       </c>
       <c r="E42" t="n">
         <v>7.25</v>
       </c>
       <c r="F42" t="n">
-        <v>6.460483551025391</v>
+        <v>5.597325325012207</v>
       </c>
       <c r="G42" t="n">
         <v>8</v>
       </c>
       <c r="H42" t="n">
-        <v>7.769162178039551</v>
+        <v>7.102072715759277</v>
       </c>
       <c r="I42" t="n">
         <v>8.75</v>
       </c>
       <c r="J42" t="n">
-        <v>9.229979515075684</v>
+        <v>8.632819175720215</v>
       </c>
       <c r="K42" t="n">
         <v>6.2</v>
       </c>
       <c r="L42" t="n">
-        <v>4.807091236114502</v>
+        <v>4.724031925201416</v>
       </c>
     </row>
     <row r="43">
@@ -2058,37 +2058,37 @@
         <v>4.8</v>
       </c>
       <c r="B43" t="n">
-        <v>6.977372169494629</v>
+        <v>5.018153667449951</v>
       </c>
       <c r="C43" t="n">
         <v>7.75</v>
       </c>
       <c r="D43" t="n">
-        <v>8.526252746582031</v>
+        <v>7.374770641326904</v>
       </c>
       <c r="E43" t="n">
         <v>5.75</v>
       </c>
       <c r="F43" t="n">
-        <v>5.423807144165039</v>
+        <v>4.794424533843994</v>
       </c>
       <c r="G43" t="n">
         <v>4.75</v>
       </c>
       <c r="H43" t="n">
-        <v>7.279937744140625</v>
+        <v>6.139773368835449</v>
       </c>
       <c r="I43" t="n">
         <v>8.5</v>
       </c>
       <c r="J43" t="n">
-        <v>9.311141967773438</v>
+        <v>8.069849967956543</v>
       </c>
       <c r="K43" t="n">
         <v>4.6</v>
       </c>
       <c r="L43" t="n">
-        <v>5.036280155181885</v>
+        <v>3.675777912139893</v>
       </c>
     </row>
     <row r="44">
@@ -2096,37 +2096,37 @@
         <v>8</v>
       </c>
       <c r="B44" t="n">
-        <v>7.429487705230713</v>
+        <v>7.201398372650146</v>
       </c>
       <c r="C44" t="n">
         <v>8.25</v>
       </c>
       <c r="D44" t="n">
-        <v>8.299221992492676</v>
+        <v>8.187029838562012</v>
       </c>
       <c r="E44" t="n">
         <v>8.25</v>
       </c>
       <c r="F44" t="n">
-        <v>8.397190093994141</v>
+        <v>7.194591522216797</v>
       </c>
       <c r="G44" t="n">
         <v>8.75</v>
       </c>
       <c r="H44" t="n">
-        <v>8.613696098327637</v>
+        <v>7.912886619567871</v>
       </c>
       <c r="I44" t="n">
         <v>9</v>
       </c>
       <c r="J44" t="n">
-        <v>9.875945091247559</v>
+        <v>9.283541679382324</v>
       </c>
       <c r="K44" t="n">
         <v>6</v>
       </c>
       <c r="L44" t="n">
-        <v>6.869592189788818</v>
+        <v>5.791421413421631</v>
       </c>
     </row>
     <row r="45">
@@ -2134,37 +2134,37 @@
         <v>7.8</v>
       </c>
       <c r="B45" t="n">
-        <v>7.4444260597229</v>
+        <v>7.299247264862061</v>
       </c>
       <c r="C45" t="n">
         <v>9</v>
       </c>
       <c r="D45" t="n">
-        <v>8.08676815032959</v>
+        <v>7.849592208862305</v>
       </c>
       <c r="E45" t="n">
         <v>8.5</v>
       </c>
       <c r="F45" t="n">
-        <v>8.241413116455078</v>
+        <v>7.327112674713135</v>
       </c>
       <c r="G45" t="n">
         <v>7.75</v>
       </c>
       <c r="H45" t="n">
-        <v>8.18999195098877</v>
+        <v>7.77309513092041</v>
       </c>
       <c r="I45" t="n">
         <v>9</v>
       </c>
       <c r="J45" t="n">
-        <v>9.424097061157227</v>
+        <v>8.922243118286133</v>
       </c>
       <c r="K45" t="n">
         <v>6.6</v>
       </c>
       <c r="L45" t="n">
-        <v>5.642471790313721</v>
+        <v>6.34739351272583</v>
       </c>
     </row>
     <row r="46">
@@ -2172,37 +2172,37 @@
         <v>5.8</v>
       </c>
       <c r="B46" t="n">
-        <v>6.1352858543396</v>
+        <v>6.123661518096924</v>
       </c>
       <c r="C46" t="n">
         <v>6.75</v>
       </c>
       <c r="D46" t="n">
-        <v>7.023384094238281</v>
+        <v>6.92794132232666</v>
       </c>
       <c r="E46" t="n">
         <v>7.75</v>
       </c>
       <c r="F46" t="n">
-        <v>4.974342346191406</v>
+        <v>6.140005111694336</v>
       </c>
       <c r="G46" t="n">
         <v>7.25</v>
       </c>
       <c r="H46" t="n">
-        <v>7.331078052520752</v>
+        <v>6.519349098205566</v>
       </c>
       <c r="I46" t="n">
         <v>8</v>
       </c>
       <c r="J46" t="n">
-        <v>8.927929878234863</v>
+        <v>7.73045539855957</v>
       </c>
       <c r="K46" t="n">
         <v>5.6</v>
       </c>
       <c r="L46" t="n">
-        <v>5.918406009674072</v>
+        <v>6.0386643409729</v>
       </c>
     </row>
     <row r="47">
@@ -2210,37 +2210,37 @@
         <v>8.199999999999999</v>
       </c>
       <c r="B47" t="n">
-        <v>7.584972858428955</v>
+        <v>7.277913570404053</v>
       </c>
       <c r="C47" t="n">
         <v>7.5</v>
       </c>
       <c r="D47" t="n">
-        <v>7.955158710479736</v>
+        <v>7.729774475097656</v>
       </c>
       <c r="E47" t="n">
         <v>6.75</v>
       </c>
       <c r="F47" t="n">
-        <v>7.532263278961182</v>
+        <v>6.965812683105469</v>
       </c>
       <c r="G47" t="n">
         <v>7.5</v>
       </c>
       <c r="H47" t="n">
-        <v>8.04197883605957</v>
+        <v>7.626320838928223</v>
       </c>
       <c r="I47" t="n">
         <v>8.5</v>
       </c>
       <c r="J47" t="n">
-        <v>9.398600578308105</v>
+        <v>8.688937187194824</v>
       </c>
       <c r="K47" t="n">
         <v>4.4</v>
       </c>
       <c r="L47" t="n">
-        <v>5.642022132873535</v>
+        <v>6.10122537612915</v>
       </c>
     </row>
     <row r="48">
@@ -2248,37 +2248,37 @@
         <v>6.6</v>
       </c>
       <c r="B48" t="n">
-        <v>7.284822940826416</v>
+        <v>7.319154262542725</v>
       </c>
       <c r="C48" t="n">
         <v>7</v>
       </c>
       <c r="D48" t="n">
-        <v>8.287363052368164</v>
+        <v>7.760114669799805</v>
       </c>
       <c r="E48" t="n">
         <v>3</v>
       </c>
       <c r="F48" t="n">
-        <v>6.857174873352051</v>
+        <v>7.154462814331055</v>
       </c>
       <c r="G48" t="n">
         <v>7.75</v>
       </c>
       <c r="H48" t="n">
-        <v>8.110116958618164</v>
+        <v>7.704370498657227</v>
       </c>
       <c r="I48" t="n">
         <v>9</v>
       </c>
       <c r="J48" t="n">
-        <v>9.748799324035645</v>
+        <v>8.778153419494629</v>
       </c>
       <c r="K48" t="n">
         <v>5.6</v>
       </c>
       <c r="L48" t="n">
-        <v>6.042251110076904</v>
+        <v>6.243493556976318</v>
       </c>
     </row>
     <row r="49">
@@ -2286,37 +2286,37 @@
         <v>8.199999999999999</v>
       </c>
       <c r="B49" t="n">
-        <v>7.758841991424561</v>
+        <v>7.874087333679199</v>
       </c>
       <c r="C49" t="n">
         <v>9</v>
       </c>
       <c r="D49" t="n">
-        <v>8.036358833312988</v>
+        <v>8.23314380645752</v>
       </c>
       <c r="E49" t="n">
         <v>9.5</v>
       </c>
       <c r="F49" t="n">
-        <v>8.38370418548584</v>
+        <v>7.636954784393311</v>
       </c>
       <c r="G49" t="n">
         <v>9</v>
       </c>
       <c r="H49" t="n">
-        <v>8.577850341796875</v>
+        <v>8.20418643951416</v>
       </c>
       <c r="I49" t="n">
         <v>9.75</v>
       </c>
       <c r="J49" t="n">
-        <v>9.775910377502441</v>
+        <v>9.265534400939941</v>
       </c>
       <c r="K49" t="n">
         <v>7.2</v>
       </c>
       <c r="L49" t="n">
-        <v>6.399285316467285</v>
+        <v>6.634512901306152</v>
       </c>
     </row>
     <row r="50">
@@ -2324,37 +2324,37 @@
         <v>7.2</v>
       </c>
       <c r="B50" t="n">
-        <v>7.705318927764893</v>
+        <v>7.360801219940186</v>
       </c>
       <c r="C50" t="n">
         <v>8</v>
       </c>
       <c r="D50" t="n">
-        <v>8.062565803527832</v>
+        <v>7.792043685913086</v>
       </c>
       <c r="E50" t="n">
         <v>8.5</v>
       </c>
       <c r="F50" t="n">
-        <v>7.760446071624756</v>
+        <v>7.019629955291748</v>
       </c>
       <c r="G50" t="n">
         <v>8</v>
       </c>
       <c r="H50" t="n">
-        <v>8.093170166015625</v>
+        <v>7.684548377990723</v>
       </c>
       <c r="I50" t="n">
         <v>9</v>
       </c>
       <c r="J50" t="n">
-        <v>9.440750122070312</v>
+        <v>8.739114761352539</v>
       </c>
       <c r="K50" t="n">
         <v>6.4</v>
       </c>
       <c r="L50" t="n">
-        <v>5.567343711853027</v>
+        <v>6.177682399749756</v>
       </c>
     </row>
     <row r="51">
@@ -2362,37 +2362,37 @@
         <v>7.2</v>
       </c>
       <c r="B51" t="n">
-        <v>6.673703670501709</v>
+        <v>6.218645572662354</v>
       </c>
       <c r="C51" t="n">
         <v>7.5</v>
       </c>
       <c r="D51" t="n">
-        <v>7.381056785583496</v>
+        <v>7.293747901916504</v>
       </c>
       <c r="E51" t="n">
         <v>3.75</v>
       </c>
       <c r="F51" t="n">
-        <v>5.147273063659668</v>
+        <v>5.339411735534668</v>
       </c>
       <c r="G51" t="n">
         <v>6.75</v>
       </c>
       <c r="H51" t="n">
-        <v>7.76094913482666</v>
+        <v>6.660031318664551</v>
       </c>
       <c r="I51" t="n">
         <v>8.25</v>
       </c>
       <c r="J51" t="n">
-        <v>9.444138526916504</v>
+        <v>8.137892723083496</v>
       </c>
       <c r="K51" t="n">
         <v>6.2</v>
       </c>
       <c r="L51" t="n">
-        <v>6.179130554199219</v>
+        <v>6.151003360748291</v>
       </c>
     </row>
     <row r="52">
@@ -2400,37 +2400,37 @@
         <v>4</v>
       </c>
       <c r="B52" t="n">
-        <v>7.672346591949463</v>
+        <v>5.525655269622803</v>
       </c>
       <c r="C52" t="n">
         <v>7.5</v>
       </c>
       <c r="D52" t="n">
-        <v>9.030779838562012</v>
+        <v>7.418497562408447</v>
       </c>
       <c r="E52" t="n">
         <v>4.25</v>
       </c>
       <c r="F52" t="n">
-        <v>6.237217903137207</v>
+        <v>4.761073589324951</v>
       </c>
       <c r="G52" t="n">
         <v>5.5</v>
       </c>
       <c r="H52" t="n">
-        <v>7.828927516937256</v>
+        <v>6.339241027832031</v>
       </c>
       <c r="I52" t="n">
         <v>7.5</v>
       </c>
       <c r="J52" t="n">
-        <v>9.760759353637695</v>
+        <v>8.005291938781738</v>
       </c>
       <c r="K52" t="n">
         <v>4.8</v>
       </c>
       <c r="L52" t="n">
-        <v>5.871261119842529</v>
+        <v>3.770488023757935</v>
       </c>
     </row>
     <row r="53">
@@ -2438,37 +2438,37 @@
         <v>6.6</v>
       </c>
       <c r="B53" t="n">
-        <v>6.988301277160645</v>
+        <v>5.224983215332031</v>
       </c>
       <c r="C53" t="n">
         <v>8.5</v>
       </c>
       <c r="D53" t="n">
-        <v>7.717584133148193</v>
+        <v>7.27829647064209</v>
       </c>
       <c r="E53" t="n">
         <v>5</v>
       </c>
       <c r="F53" t="n">
-        <v>2.108994483947754</v>
+        <v>3.258303165435791</v>
       </c>
       <c r="G53" t="n">
         <v>6.25</v>
       </c>
       <c r="H53" t="n">
-        <v>6.830137252807617</v>
+        <v>5.510554313659668</v>
       </c>
       <c r="I53" t="n">
         <v>8.5</v>
       </c>
       <c r="J53" t="n">
-        <v>8.981383323669434</v>
+        <v>7.126832008361816</v>
       </c>
       <c r="K53" t="n">
         <v>2.8</v>
       </c>
       <c r="L53" t="n">
-        <v>3.563905715942383</v>
+        <v>3.479609489440918</v>
       </c>
     </row>
     <row r="54">
@@ -2476,37 +2476,37 @@
         <v>6.6</v>
       </c>
       <c r="B54" t="n">
-        <v>7.381696224212646</v>
+        <v>6.630540370941162</v>
       </c>
       <c r="C54" t="n">
         <v>7.58</v>
       </c>
       <c r="D54" t="n">
-        <v>8.420912742614746</v>
+        <v>7.86866569519043</v>
       </c>
       <c r="E54" t="n">
         <v>8.25</v>
       </c>
       <c r="F54" t="n">
-        <v>7.113271713256836</v>
+        <v>6.219760417938232</v>
       </c>
       <c r="G54" t="n">
         <v>8</v>
       </c>
       <c r="H54" t="n">
-        <v>8.173468589782715</v>
+        <v>7.219162940979004</v>
       </c>
       <c r="I54" t="n">
         <v>8.75</v>
       </c>
       <c r="J54" t="n">
-        <v>9.256793022155762</v>
+        <v>8.64661693572998</v>
       </c>
       <c r="K54" t="n">
         <v>4.2</v>
       </c>
       <c r="L54" t="n">
-        <v>5.032508850097656</v>
+        <v>5.346824169158936</v>
       </c>
     </row>
     <row r="55">
@@ -2514,37 +2514,37 @@
         <v>6</v>
       </c>
       <c r="B55" t="n">
-        <v>6.71851634979248</v>
+        <v>6.392831802368164</v>
       </c>
       <c r="C55" t="n">
         <v>7</v>
       </c>
       <c r="D55" t="n">
-        <v>7.850110530853271</v>
+        <v>7.324058055877686</v>
       </c>
       <c r="E55" t="n">
         <v>6</v>
       </c>
       <c r="F55" t="n">
-        <v>7.174638748168945</v>
+        <v>5.728366374969482</v>
       </c>
       <c r="G55" t="n">
         <v>7.25</v>
       </c>
       <c r="H55" t="n">
-        <v>8.05126953125</v>
+        <v>6.940561294555664</v>
       </c>
       <c r="I55" t="n">
         <v>8.75</v>
       </c>
       <c r="J55" t="n">
-        <v>9.552485466003418</v>
+        <v>8.163520812988281</v>
       </c>
       <c r="K55" t="n">
         <v>5.6</v>
       </c>
       <c r="L55" t="n">
-        <v>4.489859104156494</v>
+        <v>4.616775512695312</v>
       </c>
     </row>
     <row r="56">
@@ -2552,37 +2552,37 @@
         <v>7.8</v>
       </c>
       <c r="B56" t="n">
-        <v>5.317966461181641</v>
+        <v>6.172167301177979</v>
       </c>
       <c r="C56" t="n">
         <v>8.25</v>
       </c>
       <c r="D56" t="n">
-        <v>5.935585021972656</v>
+        <v>6.208022117614746</v>
       </c>
       <c r="E56" t="n">
         <v>6.5</v>
       </c>
       <c r="F56" t="n">
-        <v>2.428337812423706</v>
+        <v>5.060944080352783</v>
       </c>
       <c r="G56" t="n">
         <v>8.25</v>
       </c>
       <c r="H56" t="n">
-        <v>6.522429466247559</v>
+        <v>6.575833320617676</v>
       </c>
       <c r="I56" t="n">
         <v>9</v>
       </c>
       <c r="J56" t="n">
-        <v>7.750635623931885</v>
+        <v>7.545844078063965</v>
       </c>
       <c r="K56" t="n">
         <v>6.4</v>
       </c>
       <c r="L56" t="n">
-        <v>4.692947387695312</v>
+        <v>5.457679271697998</v>
       </c>
     </row>
     <row r="57">
@@ -2590,37 +2590,37 @@
         <v>4</v>
       </c>
       <c r="B57" t="n">
-        <v>4.724786281585693</v>
+        <v>4.827003955841064</v>
       </c>
       <c r="C57" t="n">
         <v>5.5</v>
       </c>
       <c r="D57" t="n">
-        <v>5.792853355407715</v>
+        <v>5.757548332214355</v>
       </c>
       <c r="E57" t="n">
         <v>4.75</v>
       </c>
       <c r="F57" t="n">
-        <v>2.886500120162964</v>
+        <v>3.462793827056885</v>
       </c>
       <c r="G57" t="n">
         <v>7.25</v>
       </c>
       <c r="H57" t="n">
-        <v>6.796629905700684</v>
+        <v>5.396669387817383</v>
       </c>
       <c r="I57" t="n">
         <v>8.5</v>
       </c>
       <c r="J57" t="n">
-        <v>8.164107322692871</v>
+        <v>6.82439136505127</v>
       </c>
       <c r="K57" t="n">
         <v>3.6</v>
       </c>
       <c r="L57" t="n">
-        <v>4.406716346740723</v>
+        <v>5.00342845916748</v>
       </c>
     </row>
     <row r="58">
@@ -2628,37 +2628,37 @@
         <v>6.4</v>
       </c>
       <c r="B58" t="n">
-        <v>7.103028774261475</v>
+        <v>6.935905933380127</v>
       </c>
       <c r="C58" t="n">
         <v>7</v>
       </c>
       <c r="D58" t="n">
-        <v>7.438705921173096</v>
+        <v>7.30525016784668</v>
       </c>
       <c r="E58" t="n">
         <v>4.75</v>
       </c>
       <c r="F58" t="n">
-        <v>6.544495105743408</v>
+        <v>6.157673835754395</v>
       </c>
       <c r="G58" t="n">
         <v>8</v>
       </c>
       <c r="H58" t="n">
-        <v>7.975563049316406</v>
+        <v>7.393008232116699</v>
       </c>
       <c r="I58" t="n">
         <v>9.5</v>
       </c>
       <c r="J58" t="n">
-        <v>9.453649520874023</v>
+        <v>8.617898941040039</v>
       </c>
       <c r="K58" t="n">
         <v>7.2</v>
       </c>
       <c r="L58" t="n">
-        <v>5.929146289825439</v>
+        <v>6.623514175415039</v>
       </c>
     </row>
     <row r="59">
@@ -2666,37 +2666,37 @@
         <v>7</v>
       </c>
       <c r="B59" t="n">
-        <v>5.739618301391602</v>
+        <v>6.515093326568604</v>
       </c>
       <c r="C59" t="n">
         <v>6.75</v>
       </c>
       <c r="D59" t="n">
-        <v>7.003997802734375</v>
+        <v>7.131577014923096</v>
       </c>
       <c r="E59" t="n">
         <v>6.5</v>
       </c>
       <c r="F59" t="n">
-        <v>7.250208377838135</v>
+        <v>6.453080177307129</v>
       </c>
       <c r="G59" t="n">
         <v>5.75</v>
       </c>
       <c r="H59" t="n">
-        <v>7.829001903533936</v>
+        <v>7.033065795898438</v>
       </c>
       <c r="I59" t="n">
         <v>8</v>
       </c>
       <c r="J59" t="n">
-        <v>9.177122116088867</v>
+        <v>8.154828071594238</v>
       </c>
       <c r="K59" t="n">
         <v>7</v>
       </c>
       <c r="L59" t="n">
-        <v>4.613751888275146</v>
+        <v>5.542392253875732</v>
       </c>
     </row>
     <row r="60">
@@ -2704,37 +2704,37 @@
         <v>6.2</v>
       </c>
       <c r="B60" t="n">
-        <v>7.60200834274292</v>
+        <v>6.99171257019043</v>
       </c>
       <c r="C60" t="n">
         <v>8</v>
       </c>
       <c r="D60" t="n">
-        <v>8.823081016540527</v>
+        <v>8.136959075927734</v>
       </c>
       <c r="E60" t="n">
         <v>6.75</v>
       </c>
       <c r="F60" t="n">
-        <v>6.819092273712158</v>
+        <v>6.551760196685791</v>
       </c>
       <c r="G60" t="n">
         <v>7.5</v>
       </c>
       <c r="H60" t="n">
-        <v>8.124361038208008</v>
+        <v>7.550312042236328</v>
       </c>
       <c r="I60" t="n">
         <v>9</v>
       </c>
       <c r="J60" t="n">
-        <v>9.803668022155762</v>
+        <v>8.95028018951416</v>
       </c>
       <c r="K60" t="n">
         <v>5.2</v>
       </c>
       <c r="L60" t="n">
-        <v>6.300000667572021</v>
+        <v>5.576462268829346</v>
       </c>
     </row>
     <row r="61">
@@ -2742,37 +2742,37 @@
         <v>3.8</v>
       </c>
       <c r="B61" t="n">
-        <v>6.424031257629395</v>
+        <v>5.760457992553711</v>
       </c>
       <c r="C61" t="n">
         <v>8.5</v>
       </c>
       <c r="D61" t="n">
-        <v>8.037472724914551</v>
+        <v>7.78136157989502</v>
       </c>
       <c r="E61" t="n">
         <v>4.5</v>
       </c>
       <c r="F61" t="n">
-        <v>6.328707695007324</v>
+        <v>5.627851963043213</v>
       </c>
       <c r="G61" t="n">
         <v>6.5</v>
       </c>
       <c r="H61" t="n">
-        <v>7.886736392974854</v>
+        <v>6.829526901245117</v>
       </c>
       <c r="I61" t="n">
         <v>8.5</v>
       </c>
       <c r="J61" t="n">
-        <v>9.559118270874023</v>
+        <v>8.640421867370605</v>
       </c>
       <c r="K61" t="n">
         <v>4.2</v>
       </c>
       <c r="L61" t="n">
-        <v>4.301734447479248</v>
+        <v>4.242549419403076</v>
       </c>
     </row>
     <row r="62">
@@ -2780,37 +2780,37 @@
         <v>5.2</v>
       </c>
       <c r="B62" t="n">
-        <v>5.658552169799805</v>
+        <v>6.054015636444092</v>
       </c>
       <c r="C62" t="n">
         <v>8</v>
       </c>
       <c r="D62" t="n">
-        <v>6.848919868469238</v>
+        <v>6.893049716949463</v>
       </c>
       <c r="E62" t="n">
         <v>3.75</v>
       </c>
       <c r="F62" t="n">
-        <v>4.647011756896973</v>
+        <v>5.700575828552246</v>
       </c>
       <c r="G62" t="n">
         <v>7</v>
       </c>
       <c r="H62" t="n">
-        <v>7.35399341583252</v>
+        <v>6.908245086669922</v>
       </c>
       <c r="I62" t="n">
         <v>9.75</v>
       </c>
       <c r="J62" t="n">
-        <v>9.001602172851562</v>
+        <v>8.258486747741699</v>
       </c>
       <c r="K62" t="n">
         <v>5</v>
       </c>
       <c r="L62" t="n">
-        <v>3.567990303039551</v>
+        <v>5.005568981170654</v>
       </c>
     </row>
     <row r="63">
@@ -2818,37 +2818,37 @@
         <v>7.6</v>
       </c>
       <c r="B63" t="n">
-        <v>7.931543827056885</v>
+        <v>7.682925224304199</v>
       </c>
       <c r="C63" t="n">
         <v>9.25</v>
       </c>
       <c r="D63" t="n">
-        <v>8.190666198730469</v>
+        <v>8.311273574829102</v>
       </c>
       <c r="E63" t="n">
         <v>8.25</v>
       </c>
       <c r="F63" t="n">
-        <v>7.906292915344238</v>
+        <v>8.405627250671387</v>
       </c>
       <c r="G63" t="n">
         <v>8</v>
       </c>
       <c r="H63" t="n">
-        <v>8.645706176757812</v>
+        <v>8.080456733703613</v>
       </c>
       <c r="I63" t="n">
         <v>9.5</v>
       </c>
       <c r="J63" t="n">
-        <v>9.793891906738281</v>
+        <v>9.364986419677734</v>
       </c>
       <c r="K63" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="L63" t="n">
-        <v>8.600152015686035</v>
+        <v>8.123790740966797</v>
       </c>
     </row>
     <row r="64">
@@ -2856,37 +2856,37 @@
         <v>8</v>
       </c>
       <c r="B64" t="n">
-        <v>7.085256576538086</v>
+        <v>6.855968952178955</v>
       </c>
       <c r="C64" t="n">
         <v>6.5</v>
       </c>
       <c r="D64" t="n">
-        <v>8.417794227600098</v>
+        <v>7.802000045776367</v>
       </c>
       <c r="E64" t="n">
         <v>5.75</v>
       </c>
       <c r="F64" t="n">
-        <v>8.006609916687012</v>
+        <v>6.343111515045166</v>
       </c>
       <c r="G64" t="n">
         <v>7</v>
       </c>
       <c r="H64" t="n">
-        <v>8.219926834106445</v>
+        <v>7.394946098327637</v>
       </c>
       <c r="I64" t="n">
         <v>9</v>
       </c>
       <c r="J64" t="n">
-        <v>9.733285903930664</v>
+        <v>8.672301292419434</v>
       </c>
       <c r="K64" t="n">
         <v>4.4</v>
       </c>
       <c r="L64" t="n">
-        <v>4.572241306304932</v>
+        <v>5.246839046478271</v>
       </c>
     </row>
     <row r="65">
@@ -2894,37 +2894,37 @@
         <v>6.2</v>
       </c>
       <c r="B65" t="n">
-        <v>6.711917400360107</v>
+        <v>6.359445095062256</v>
       </c>
       <c r="C65" t="n">
         <v>6.75</v>
       </c>
       <c r="D65" t="n">
-        <v>7.263860702514648</v>
+        <v>7.054713249206543</v>
       </c>
       <c r="E65" t="n">
         <v>5.75</v>
       </c>
       <c r="F65" t="n">
-        <v>6.515273094177246</v>
+        <v>5.49533748626709</v>
       </c>
       <c r="G65" t="n">
         <v>6</v>
       </c>
       <c r="H65" t="n">
-        <v>8.467529296875</v>
+        <v>6.736369132995605</v>
       </c>
       <c r="I65" t="n">
         <v>9.5</v>
       </c>
       <c r="J65" t="n">
-        <v>9.78549861907959</v>
+        <v>8.084792137145996</v>
       </c>
       <c r="K65" t="n">
         <v>8.4</v>
       </c>
       <c r="L65" t="n">
-        <v>7.381073474884033</v>
+        <v>6.61049222946167</v>
       </c>
     </row>
     <row r="66">
@@ -2932,37 +2932,37 @@
         <v>4.6</v>
       </c>
       <c r="B66" t="n">
-        <v>8.42743968963623</v>
+        <v>5.951237201690674</v>
       </c>
       <c r="C66" t="n">
         <v>7</v>
       </c>
       <c r="D66" t="n">
-        <v>8.533173561096191</v>
+        <v>7.45213508605957</v>
       </c>
       <c r="E66" t="n">
         <v>5.25</v>
       </c>
       <c r="F66" t="n">
-        <v>9.210533142089844</v>
+        <v>4.669327259063721</v>
       </c>
       <c r="G66" t="n">
         <v>8</v>
       </c>
       <c r="H66" t="n">
-        <v>8.446776390075684</v>
+        <v>6.358576774597168</v>
       </c>
       <c r="I66" t="n">
         <v>8</v>
       </c>
       <c r="J66" t="n">
-        <v>9.293133735656738</v>
+        <v>7.959336280822754</v>
       </c>
       <c r="K66" t="n">
         <v>5.4</v>
       </c>
       <c r="L66" t="n">
-        <v>7.29116153717041</v>
+        <v>5.433444976806641</v>
       </c>
     </row>
     <row r="67">
@@ -2970,37 +2970,37 @@
         <v>5.2</v>
       </c>
       <c r="B67" t="n">
-        <v>5.544015884399414</v>
+        <v>5.620923519134521</v>
       </c>
       <c r="C67" t="n">
         <v>6.5</v>
       </c>
       <c r="D67" t="n">
-        <v>6.132080078125</v>
+        <v>6.463183403015137</v>
       </c>
       <c r="E67" t="n">
         <v>6.25</v>
       </c>
       <c r="F67" t="n">
-        <v>4.843517303466797</v>
+        <v>5.419650554656982</v>
       </c>
       <c r="G67" t="n">
         <v>7.25</v>
       </c>
       <c r="H67" t="n">
-        <v>7.070845603942871</v>
+        <v>6.373401641845703</v>
       </c>
       <c r="I67" t="n">
         <v>7.75</v>
       </c>
       <c r="J67" t="n">
-        <v>8.744271278381348</v>
+        <v>7.540083885192871</v>
       </c>
       <c r="K67" t="n">
         <v>5</v>
       </c>
       <c r="L67" t="n">
-        <v>3.225961208343506</v>
+        <v>4.065126895904541</v>
       </c>
     </row>
     <row r="68">
@@ -3008,37 +3008,37 @@
         <v>8.4</v>
       </c>
       <c r="B68" t="n">
-        <v>7.773290157318115</v>
+        <v>7.381384372711182</v>
       </c>
       <c r="C68" t="n">
         <v>8</v>
       </c>
       <c r="D68" t="n">
-        <v>7.541042804718018</v>
+        <v>7.644241333007812</v>
       </c>
       <c r="E68" t="n">
         <v>7.5</v>
       </c>
       <c r="F68" t="n">
-        <v>8.370053291320801</v>
+        <v>7.214272022247314</v>
       </c>
       <c r="G68" t="n">
         <v>7.5</v>
       </c>
       <c r="H68" t="n">
-        <v>8.637296676635742</v>
+        <v>8.032541275024414</v>
       </c>
       <c r="I68" t="n">
         <v>9.25</v>
       </c>
       <c r="J68" t="n">
-        <v>9.775195121765137</v>
+        <v>9.014577865600586</v>
       </c>
       <c r="K68" t="n">
         <v>4.6</v>
       </c>
       <c r="L68" t="n">
-        <v>4.861369609832764</v>
+        <v>5.215141773223877</v>
       </c>
     </row>
     <row r="69">
@@ -3046,37 +3046,37 @@
         <v>7.6</v>
       </c>
       <c r="B69" t="n">
-        <v>7.301399707794189</v>
+        <v>7.393035411834717</v>
       </c>
       <c r="C69" t="n">
         <v>8.25</v>
       </c>
       <c r="D69" t="n">
-        <v>7.746181488037109</v>
+        <v>7.80916690826416</v>
       </c>
       <c r="E69" t="n">
         <v>6</v>
       </c>
       <c r="F69" t="n">
-        <v>6.604745388031006</v>
+        <v>7.673045635223389</v>
       </c>
       <c r="G69" t="n">
         <v>7.75</v>
       </c>
       <c r="H69" t="n">
-        <v>8.113668441772461</v>
+        <v>7.751041412353516</v>
       </c>
       <c r="I69" t="n">
         <v>9.75</v>
       </c>
       <c r="J69" t="n">
-        <v>9.53572940826416</v>
+        <v>8.924554824829102</v>
       </c>
       <c r="K69" t="n">
         <v>7.2</v>
       </c>
       <c r="L69" t="n">
-        <v>7.333288192749023</v>
+        <v>7.587860584259033</v>
       </c>
     </row>
     <row r="70">
@@ -3084,37 +3084,37 @@
         <v>5.2</v>
       </c>
       <c r="B70" t="n">
-        <v>5.071889877319336</v>
+        <v>5.872416973114014</v>
       </c>
       <c r="C70" t="n">
         <v>6.75</v>
       </c>
       <c r="D70" t="n">
-        <v>6.078348636627197</v>
+        <v>6.541963577270508</v>
       </c>
       <c r="E70" t="n">
         <v>4.75</v>
       </c>
       <c r="F70" t="n">
-        <v>3.901436567306519</v>
+        <v>5.44834566116333</v>
       </c>
       <c r="G70" t="n">
         <v>6.75</v>
       </c>
       <c r="H70" t="n">
-        <v>6.883767604827881</v>
+        <v>6.551815032958984</v>
       </c>
       <c r="I70" t="n">
         <v>7.75</v>
       </c>
       <c r="J70" t="n">
-        <v>8.579653739929199</v>
+        <v>7.807455062866211</v>
       </c>
       <c r="K70" t="n">
         <v>6</v>
       </c>
       <c r="L70" t="n">
-        <v>4.938931941986084</v>
+        <v>5.311174869537354</v>
       </c>
     </row>
     <row r="71">
@@ -3122,37 +3122,37 @@
         <v>6.8</v>
       </c>
       <c r="B71" t="n">
-        <v>5.115926742553711</v>
+        <v>5.672430515289307</v>
       </c>
       <c r="C71" t="n">
         <v>7.5</v>
       </c>
       <c r="D71" t="n">
-        <v>7.045290470123291</v>
+        <v>6.981127738952637</v>
       </c>
       <c r="E71" t="n">
         <v>6.5</v>
       </c>
       <c r="F71" t="n">
-        <v>5.896230220794678</v>
+        <v>6.280380249023438</v>
       </c>
       <c r="G71" t="n">
         <v>7.25</v>
       </c>
       <c r="H71" t="n">
-        <v>7.287774085998535</v>
+        <v>6.90626335144043</v>
       </c>
       <c r="I71" t="n">
         <v>9</v>
       </c>
       <c r="J71" t="n">
-        <v>8.978862762451172</v>
+        <v>8.40224552154541</v>
       </c>
       <c r="K71" t="n">
         <v>5.2</v>
       </c>
       <c r="L71" t="n">
-        <v>3.291445970535278</v>
+        <v>4.231608867645264</v>
       </c>
     </row>
     <row r="72">
@@ -3160,37 +3160,37 @@
         <v>7.2</v>
       </c>
       <c r="B72" t="n">
-        <v>6.336965084075928</v>
+        <v>5.881643772125244</v>
       </c>
       <c r="C72" t="n">
         <v>7.25</v>
       </c>
       <c r="D72" t="n">
-        <v>7.33076286315918</v>
+        <v>7.377928733825684</v>
       </c>
       <c r="E72" t="n">
         <v>6.5</v>
       </c>
       <c r="F72" t="n">
-        <v>3.354601383209229</v>
+        <v>4.19528341293335</v>
       </c>
       <c r="G72" t="n">
         <v>7.75</v>
       </c>
       <c r="H72" t="n">
-        <v>6.90143871307373</v>
+        <v>6.331209182739258</v>
       </c>
       <c r="I72" t="n">
         <v>9.25</v>
       </c>
       <c r="J72" t="n">
-        <v>9.015730857849121</v>
+        <v>7.952101707458496</v>
       </c>
       <c r="K72" t="n">
         <v>4.2</v>
       </c>
       <c r="L72" t="n">
-        <v>4.81406831741333</v>
+        <v>5.036833763122559</v>
       </c>
     </row>
     <row r="73">
@@ -3198,37 +3198,37 @@
         <v>7</v>
       </c>
       <c r="B73" t="n">
-        <v>7.249720573425293</v>
+        <v>5.866239547729492</v>
       </c>
       <c r="C73" t="n">
         <v>7.75</v>
       </c>
       <c r="D73" t="n">
-        <v>8.536184310913086</v>
+        <v>6.996125221252441</v>
       </c>
       <c r="E73" t="n">
         <v>6</v>
       </c>
       <c r="F73" t="n">
-        <v>5.566678047180176</v>
+        <v>6.445320606231689</v>
       </c>
       <c r="G73" t="n">
         <v>7.5</v>
       </c>
       <c r="H73" t="n">
-        <v>7.583410739898682</v>
+        <v>7.176000595092773</v>
       </c>
       <c r="I73" t="n">
         <v>9.25</v>
       </c>
       <c r="J73" t="n">
-        <v>9.652381896972656</v>
+        <v>8.586878776550293</v>
       </c>
       <c r="K73" t="n">
         <v>5.4</v>
       </c>
       <c r="L73" t="n">
-        <v>4.920376300811768</v>
+        <v>3.902906656265259</v>
       </c>
     </row>
     <row r="74">
@@ -3236,37 +3236,37 @@
         <v>3.6</v>
       </c>
       <c r="B74" t="n">
-        <v>6.0439453125</v>
+        <v>5.856789112091064</v>
       </c>
       <c r="C74" t="n">
         <v>7</v>
       </c>
       <c r="D74" t="n">
-        <v>7.192317962646484</v>
+        <v>6.620079517364502</v>
       </c>
       <c r="E74" t="n">
         <v>6</v>
       </c>
       <c r="F74" t="n">
-        <v>5.990246295928955</v>
+        <v>6.061569690704346</v>
       </c>
       <c r="G74" t="n">
         <v>5.75</v>
       </c>
       <c r="H74" t="n">
-        <v>7.291339874267578</v>
+        <v>6.754220008850098</v>
       </c>
       <c r="I74" t="n">
         <v>6.75</v>
       </c>
       <c r="J74" t="n">
-        <v>8.720911979675293</v>
+        <v>7.933820724487305</v>
       </c>
       <c r="K74" t="n">
         <v>4.4</v>
       </c>
       <c r="L74" t="n">
-        <v>3.561734676361084</v>
+        <v>4.3518967628479</v>
       </c>
     </row>
     <row r="75">
@@ -3274,37 +3274,37 @@
         <v>7.6</v>
       </c>
       <c r="B75" t="n">
-        <v>6.820618629455566</v>
+        <v>6.895197868347168</v>
       </c>
       <c r="C75" t="n">
         <v>6</v>
       </c>
       <c r="D75" t="n">
-        <v>7.648118019104004</v>
+        <v>7.906453132629395</v>
       </c>
       <c r="E75" t="n">
         <v>5.75</v>
       </c>
       <c r="F75" t="n">
-        <v>6.921055793762207</v>
+        <v>6.81444263458252</v>
       </c>
       <c r="G75" t="n">
         <v>7.25</v>
       </c>
       <c r="H75" t="n">
-        <v>7.794501304626465</v>
+        <v>7.29988956451416</v>
       </c>
       <c r="I75" t="n">
         <v>8.5</v>
       </c>
       <c r="J75" t="n">
-        <v>9.231321334838867</v>
+        <v>8.656906127929688</v>
       </c>
       <c r="K75" t="n">
         <v>6</v>
       </c>
       <c r="L75" t="n">
-        <v>5.694882392883301</v>
+        <v>6.521061420440674</v>
       </c>
     </row>
     <row r="76">
@@ -3312,37 +3312,37 @@
         <v>7.6</v>
       </c>
       <c r="B76" t="n">
-        <v>7.694414615631104</v>
+        <v>7.434457302093506</v>
       </c>
       <c r="C76" t="n">
         <v>6</v>
       </c>
       <c r="D76" t="n">
-        <v>7.926719665527344</v>
+        <v>8.186482429504395</v>
       </c>
       <c r="E76" t="n">
         <v>5.75</v>
       </c>
       <c r="F76" t="n">
-        <v>7.651824474334717</v>
+        <v>6.712021350860596</v>
       </c>
       <c r="G76" t="n">
         <v>7.25</v>
       </c>
       <c r="H76" t="n">
-        <v>8.297133445739746</v>
+        <v>7.735180854797363</v>
       </c>
       <c r="I76" t="n">
         <v>8.5</v>
       </c>
       <c r="J76" t="n">
-        <v>9.693840026855469</v>
+        <v>8.929162979125977</v>
       </c>
       <c r="K76" t="n">
         <v>6</v>
       </c>
       <c r="L76" t="n">
-        <v>5.535366058349609</v>
+        <v>5.951216697692871</v>
       </c>
     </row>
     <row r="77">
@@ -3350,37 +3350,37 @@
         <v>7</v>
       </c>
       <c r="B77" t="n">
-        <v>7.765183448791504</v>
+        <v>6.307545185089111</v>
       </c>
       <c r="C77" t="n">
         <v>8.5</v>
       </c>
       <c r="D77" t="n">
-        <v>8.9295654296875</v>
+        <v>7.590377330780029</v>
       </c>
       <c r="E77" t="n">
         <v>4.75</v>
       </c>
       <c r="F77" t="n">
-        <v>8.630480766296387</v>
+        <v>5.903520584106445</v>
       </c>
       <c r="G77" t="n">
         <v>8.25</v>
       </c>
       <c r="H77" t="n">
-        <v>8.220710754394531</v>
+        <v>6.783801078796387</v>
       </c>
       <c r="I77" t="n">
         <v>9.5</v>
       </c>
       <c r="J77" t="n">
-        <v>9.287319183349609</v>
+        <v>8.213896751403809</v>
       </c>
       <c r="K77" t="n">
         <v>4.8</v>
       </c>
       <c r="L77" t="n">
-        <v>7.507006168365479</v>
+        <v>5.551585674285889</v>
       </c>
     </row>
     <row r="78">
@@ -3388,37 +3388,37 @@
         <v>6.4</v>
       </c>
       <c r="B78" t="n">
-        <v>6.127294063568115</v>
+        <v>5.893395900726318</v>
       </c>
       <c r="C78" t="n">
         <v>6</v>
       </c>
       <c r="D78" t="n">
-        <v>7.044049739837646</v>
+        <v>6.858083724975586</v>
       </c>
       <c r="E78" t="n">
         <v>4</v>
       </c>
       <c r="F78" t="n">
-        <v>5.444808006286621</v>
+        <v>5.79437780380249</v>
       </c>
       <c r="G78" t="n">
         <v>6.25</v>
       </c>
       <c r="H78" t="n">
-        <v>7.525852680206299</v>
+        <v>6.755239486694336</v>
       </c>
       <c r="I78" t="n">
         <v>9</v>
       </c>
       <c r="J78" t="n">
-        <v>9.167829513549805</v>
+        <v>8.061309814453125</v>
       </c>
       <c r="K78" t="n">
         <v>4.8</v>
       </c>
       <c r="L78" t="n">
-        <v>4.239746570587158</v>
+        <v>4.498960971832275</v>
       </c>
     </row>
     <row r="79">
@@ -3426,37 +3426,37 @@
         <v>5.8</v>
       </c>
       <c r="B79" t="n">
-        <v>6.691611289978027</v>
+        <v>6.646547794342041</v>
       </c>
       <c r="C79" t="n">
         <v>7</v>
       </c>
       <c r="D79" t="n">
-        <v>7.499497413635254</v>
+        <v>7.893337726593018</v>
       </c>
       <c r="E79" t="n">
         <v>4</v>
       </c>
       <c r="F79" t="n">
-        <v>4.748990535736084</v>
+        <v>5.903370380401611</v>
       </c>
       <c r="G79" t="n">
         <v>7.5</v>
       </c>
       <c r="H79" t="n">
-        <v>7.377837657928467</v>
+        <v>6.876609802246094</v>
       </c>
       <c r="I79" t="n">
         <v>9.5</v>
       </c>
       <c r="J79" t="n">
-        <v>9.170722961425781</v>
+        <v>8.362110137939453</v>
       </c>
       <c r="K79" t="n">
         <v>6.2</v>
       </c>
       <c r="L79" t="n">
-        <v>5.947186946868896</v>
+        <v>6.639537334442139</v>
       </c>
     </row>
     <row r="80">
@@ -3464,37 +3464,37 @@
         <v>3.8</v>
       </c>
       <c r="B80" t="n">
-        <v>7.019052505493164</v>
+        <v>5.986549377441406</v>
       </c>
       <c r="C80" t="n">
         <v>6</v>
       </c>
       <c r="D80" t="n">
-        <v>7.854358196258545</v>
+        <v>7.295823097229004</v>
       </c>
       <c r="E80" t="n">
         <v>7.75</v>
       </c>
       <c r="F80" t="n">
-        <v>6.941460609436035</v>
+        <v>5.574392318725586</v>
       </c>
       <c r="G80" t="n">
         <v>8</v>
       </c>
       <c r="H80" t="n">
-        <v>7.915111541748047</v>
+        <v>6.695425033569336</v>
       </c>
       <c r="I80" t="n">
         <v>8.75</v>
       </c>
       <c r="J80" t="n">
-        <v>9.545228958129883</v>
+        <v>8.116134643554688</v>
       </c>
       <c r="K80" t="n">
         <v>6</v>
       </c>
       <c r="L80" t="n">
-        <v>4.211343288421631</v>
+        <v>4.535038948059082</v>
       </c>
     </row>
     <row r="81">
@@ -3502,37 +3502,37 @@
         <v>7</v>
       </c>
       <c r="B81" t="n">
-        <v>5.945596694946289</v>
+        <v>6.138195514678955</v>
       </c>
       <c r="C81" t="n">
         <v>8.75</v>
       </c>
       <c r="D81" t="n">
-        <v>7.351497650146484</v>
+        <v>7.195601463317871</v>
       </c>
       <c r="E81" t="n">
         <v>3.5</v>
       </c>
       <c r="F81" t="n">
-        <v>3.807215452194214</v>
+        <v>5.36181116104126</v>
       </c>
       <c r="G81" t="n">
         <v>6.75</v>
       </c>
       <c r="H81" t="n">
-        <v>6.896838665008545</v>
+        <v>6.684691429138184</v>
       </c>
       <c r="I81" t="n">
         <v>8.75</v>
       </c>
       <c r="J81" t="n">
-        <v>8.905637741088867</v>
+        <v>8.140604019165039</v>
       </c>
       <c r="K81" t="n">
         <v>5.6</v>
       </c>
       <c r="L81" t="n">
-        <v>5.492504119873047</v>
+        <v>5.770401000976562</v>
       </c>
     </row>
     <row r="82">
@@ -3540,37 +3540,37 @@
         <v>7.4</v>
       </c>
       <c r="B82" t="n">
-        <v>6.511585235595703</v>
+        <v>6.252813816070557</v>
       </c>
       <c r="C82" t="n">
         <v>8</v>
       </c>
       <c r="D82" t="n">
-        <v>7.223464965820312</v>
+        <v>7.169622421264648</v>
       </c>
       <c r="E82" t="n">
         <v>6.25</v>
       </c>
       <c r="F82" t="n">
-        <v>7.031821727752686</v>
+        <v>6.615185260772705</v>
       </c>
       <c r="G82" t="n">
         <v>9</v>
       </c>
       <c r="H82" t="n">
-        <v>7.962430477142334</v>
+        <v>7.106461524963379</v>
       </c>
       <c r="I82" t="n">
         <v>8.25</v>
       </c>
       <c r="J82" t="n">
-        <v>9.366178512573242</v>
+        <v>8.410538673400879</v>
       </c>
       <c r="K82" t="n">
         <v>5.4</v>
       </c>
       <c r="L82" t="n">
-        <v>4.608110427856445</v>
+        <v>5.18709659576416</v>
       </c>
     </row>
     <row r="83">
@@ -3578,37 +3578,37 @@
         <v>6.6</v>
       </c>
       <c r="B83" t="n">
-        <v>6.778229713439941</v>
+        <v>6.293766498565674</v>
       </c>
       <c r="C83" t="n">
         <v>8.5</v>
       </c>
       <c r="D83" t="n">
-        <v>8.867159843444824</v>
+        <v>8.296202659606934</v>
       </c>
       <c r="E83" t="n">
         <v>4.25</v>
       </c>
       <c r="F83" t="n">
-        <v>4.958242416381836</v>
+        <v>4.688196659088135</v>
       </c>
       <c r="G83" t="n">
         <v>6</v>
       </c>
       <c r="H83" t="n">
-        <v>7.098037719726562</v>
+        <v>6.490085601806641</v>
       </c>
       <c r="I83" t="n">
         <v>8.25</v>
       </c>
       <c r="J83" t="n">
-        <v>9.29454517364502</v>
+        <v>8.187798500061035</v>
       </c>
       <c r="K83" t="n">
         <v>5</v>
       </c>
       <c r="L83" t="n">
-        <v>5.280168533325195</v>
+        <v>5.113572597503662</v>
       </c>
     </row>
     <row r="84">
@@ -3616,37 +3616,37 @@
         <v>7.2</v>
       </c>
       <c r="B84" t="n">
-        <v>6.594785213470459</v>
+        <v>6.420971870422363</v>
       </c>
       <c r="C84" t="n">
         <v>8.75</v>
       </c>
       <c r="D84" t="n">
-        <v>7.514167308807373</v>
+        <v>7.741724967956543</v>
       </c>
       <c r="E84" t="n">
         <v>4.5</v>
       </c>
       <c r="F84" t="n">
-        <v>6.055255889892578</v>
+        <v>5.618914127349854</v>
       </c>
       <c r="G84" t="n">
         <v>7.25</v>
       </c>
       <c r="H84" t="n">
-        <v>7.721673965454102</v>
+        <v>6.877996444702148</v>
       </c>
       <c r="I84" t="n">
         <v>8.75</v>
       </c>
       <c r="J84" t="n">
-        <v>9.358364105224609</v>
+        <v>8.29768180847168</v>
       </c>
       <c r="K84" t="n">
         <v>4.8</v>
       </c>
       <c r="L84" t="n">
-        <v>4.441511154174805</v>
+        <v>5.061291217803955</v>
       </c>
     </row>
     <row r="85">
@@ -3654,37 +3654,37 @@
         <v>3.8</v>
       </c>
       <c r="B85" t="n">
-        <v>7.795962333679199</v>
+        <v>7.74767541885376</v>
       </c>
       <c r="C85" t="n">
         <v>6.5</v>
       </c>
       <c r="D85" t="n">
-        <v>8.319382667541504</v>
+        <v>8.446850776672363</v>
       </c>
       <c r="E85" t="n">
         <v>3.25</v>
       </c>
       <c r="F85" t="n">
-        <v>7.981043338775635</v>
+        <v>7.299813747406006</v>
       </c>
       <c r="G85" t="n">
         <v>6</v>
       </c>
       <c r="H85" t="n">
-        <v>8.28947639465332</v>
+        <v>7.90058708190918</v>
       </c>
       <c r="I85" t="n">
         <v>8</v>
       </c>
       <c r="J85" t="n">
-        <v>9.641288757324219</v>
+        <v>9.11485481262207</v>
       </c>
       <c r="K85" t="n">
         <v>4</v>
       </c>
       <c r="L85" t="n">
-        <v>6.433435916900635</v>
+        <v>7.097476482391357</v>
       </c>
     </row>
     <row r="86">
@@ -3692,37 +3692,37 @@
         <v>7.2</v>
       </c>
       <c r="B86" t="n">
-        <v>7.313093662261963</v>
+        <v>6.883912563323975</v>
       </c>
       <c r="C86" t="n">
         <v>8</v>
       </c>
       <c r="D86" t="n">
-        <v>8.042159080505371</v>
+        <v>8.160521507263184</v>
       </c>
       <c r="E86" t="n">
         <v>7.25</v>
       </c>
       <c r="F86" t="n">
-        <v>7.965516090393066</v>
+        <v>6.329023361206055</v>
       </c>
       <c r="G86" t="n">
         <v>6.75</v>
       </c>
       <c r="H86" t="n">
-        <v>8.109040260314941</v>
+        <v>7.231058120727539</v>
       </c>
       <c r="I86" t="n">
         <v>8.5</v>
       </c>
       <c r="J86" t="n">
-        <v>9.493172645568848</v>
+        <v>8.683198928833008</v>
       </c>
       <c r="K86" t="n">
         <v>7</v>
       </c>
       <c r="L86" t="n">
-        <v>5.418704986572266</v>
+        <v>6.146303653717041</v>
       </c>
     </row>
     <row r="87">
@@ -3730,37 +3730,37 @@
         <v>5</v>
       </c>
       <c r="B87" t="n">
-        <v>4.994129657745361</v>
+        <v>5.441190242767334</v>
       </c>
       <c r="C87" t="n">
         <v>6.5</v>
       </c>
       <c r="D87" t="n">
-        <v>6.830160140991211</v>
+        <v>6.325592994689941</v>
       </c>
       <c r="E87" t="n">
         <v>4.5</v>
       </c>
       <c r="F87" t="n">
-        <v>4.175722599029541</v>
+        <v>4.109580516815186</v>
       </c>
       <c r="G87" t="n">
         <v>7.5</v>
       </c>
       <c r="H87" t="n">
-        <v>7.011269092559814</v>
+        <v>6.435256004333496</v>
       </c>
       <c r="I87" t="n">
         <v>8.75</v>
       </c>
       <c r="J87" t="n">
-        <v>8.954404830932617</v>
+        <v>7.968393325805664</v>
       </c>
       <c r="K87" t="n">
         <v>5.6</v>
       </c>
       <c r="L87" t="n">
-        <v>4.227467060089111</v>
+        <v>4.627300262451172</v>
       </c>
     </row>
     <row r="88">
@@ -3768,37 +3768,37 @@
         <v>6.4</v>
       </c>
       <c r="B88" t="n">
-        <v>6.891703605651855</v>
+        <v>6.732253074645996</v>
       </c>
       <c r="C88" t="n">
         <v>6.75</v>
       </c>
       <c r="D88" t="n">
-        <v>8.614717483520508</v>
+        <v>7.807269096374512</v>
       </c>
       <c r="E88" t="n">
         <v>7.5</v>
       </c>
       <c r="F88" t="n">
-        <v>7.253901958465576</v>
+        <v>6.06151819229126</v>
       </c>
       <c r="G88" t="n">
         <v>7</v>
       </c>
       <c r="H88" t="n">
-        <v>7.887149810791016</v>
+        <v>7.208813667297363</v>
       </c>
       <c r="I88" t="n">
         <v>8.75</v>
       </c>
       <c r="J88" t="n">
-        <v>9.538181304931641</v>
+        <v>8.531404495239258</v>
       </c>
       <c r="K88" t="n">
         <v>5</v>
       </c>
       <c r="L88" t="n">
-        <v>5.378611087799072</v>
+        <v>5.220403671264648</v>
       </c>
     </row>
     <row r="89">
@@ -3806,37 +3806,37 @@
         <v>7</v>
       </c>
       <c r="B89" t="n">
-        <v>7.281599044799805</v>
+        <v>7.144065380096436</v>
       </c>
       <c r="C89" t="n">
         <v>4.5</v>
       </c>
       <c r="D89" t="n">
-        <v>7.899136543273926</v>
+        <v>7.662747383117676</v>
       </c>
       <c r="E89" t="n">
         <v>4</v>
       </c>
       <c r="F89" t="n">
-        <v>7.133971214294434</v>
+        <v>6.897717952728271</v>
       </c>
       <c r="G89" t="n">
         <v>7</v>
       </c>
       <c r="H89" t="n">
-        <v>7.803296566009521</v>
+        <v>7.459541320800781</v>
       </c>
       <c r="I89" t="n">
         <v>8</v>
       </c>
       <c r="J89" t="n">
-        <v>9.253979682922363</v>
+        <v>8.555069923400879</v>
       </c>
       <c r="K89" t="n">
         <v>6.6</v>
       </c>
       <c r="L89" t="n">
-        <v>5.631362438201904</v>
+        <v>6.288375377655029</v>
       </c>
     </row>
     <row r="90">
@@ -3844,37 +3844,37 @@
         <v>7</v>
       </c>
       <c r="B90" t="n">
-        <v>6.943705558776855</v>
+        <v>6.423355102539062</v>
       </c>
       <c r="C90" t="n">
         <v>6.75</v>
       </c>
       <c r="D90" t="n">
-        <v>8.414031982421875</v>
+        <v>7.572941303253174</v>
       </c>
       <c r="E90" t="n">
         <v>2</v>
       </c>
       <c r="F90" t="n">
-        <v>7.918622970581055</v>
+        <v>6.272518634796143</v>
       </c>
       <c r="G90" t="n">
         <v>6.5</v>
       </c>
       <c r="H90" t="n">
-        <v>8.497516632080078</v>
+        <v>7.365080833435059</v>
       </c>
       <c r="I90" t="n">
         <v>7</v>
       </c>
       <c r="J90" t="n">
-        <v>9.750540733337402</v>
+        <v>8.976522445678711</v>
       </c>
       <c r="K90" t="n">
         <v>5.6</v>
       </c>
       <c r="L90" t="n">
-        <v>6.424540519714355</v>
+        <v>5.956131458282471</v>
       </c>
     </row>
     <row r="91">
@@ -3882,37 +3882,37 @@
         <v>7.6</v>
       </c>
       <c r="B91" t="n">
-        <v>6.630644798278809</v>
+        <v>6.098035335540771</v>
       </c>
       <c r="C91" t="n">
         <v>7.5</v>
       </c>
       <c r="D91" t="n">
-        <v>7.328261375427246</v>
+        <v>7.103571891784668</v>
       </c>
       <c r="E91" t="n">
         <v>5.5</v>
       </c>
       <c r="F91" t="n">
-        <v>6.469213008880615</v>
+        <v>5.940339088439941</v>
       </c>
       <c r="G91" t="n">
         <v>7.25</v>
       </c>
       <c r="H91" t="n">
-        <v>8.02863883972168</v>
+        <v>6.682403564453125</v>
       </c>
       <c r="I91" t="n">
         <v>9.25</v>
       </c>
       <c r="J91" t="n">
-        <v>9.542091369628906</v>
+        <v>7.973666191101074</v>
       </c>
       <c r="K91" t="n">
         <v>5.8</v>
       </c>
       <c r="L91" t="n">
-        <v>5.236043453216553</v>
+        <v>5.200581550598145</v>
       </c>
     </row>
     <row r="92">
@@ -3920,37 +3920,37 @@
         <v>8</v>
       </c>
       <c r="B92" t="n">
-        <v>7.635937690734863</v>
+        <v>5.979309558868408</v>
       </c>
       <c r="C92" t="n">
         <v>6.5</v>
       </c>
       <c r="D92" t="n">
-        <v>6.868504524230957</v>
+        <v>6.407194137573242</v>
       </c>
       <c r="E92" t="n">
         <v>4</v>
       </c>
       <c r="F92" t="n">
-        <v>6.798800945281982</v>
+        <v>4.529945850372314</v>
       </c>
       <c r="G92" t="n">
         <v>7</v>
       </c>
       <c r="H92" t="n">
-        <v>9.366678237915039</v>
+        <v>6.347145080566406</v>
       </c>
       <c r="I92" t="n">
         <v>8.75</v>
       </c>
       <c r="J92" t="n">
-        <v>10</v>
+        <v>7.622981071472168</v>
       </c>
       <c r="K92" t="n">
         <v>4.8</v>
       </c>
       <c r="L92" t="n">
-        <v>7.995766162872314</v>
+        <v>6.255034923553467</v>
       </c>
     </row>
     <row r="93">
@@ -3958,37 +3958,37 @@
         <v>7.2</v>
       </c>
       <c r="B93" t="n">
-        <v>7.394167900085449</v>
+        <v>6.971882820129395</v>
       </c>
       <c r="C93" t="n">
         <v>8.25</v>
       </c>
       <c r="D93" t="n">
-        <v>8.209142684936523</v>
+        <v>7.750265121459961</v>
       </c>
       <c r="E93" t="n">
         <v>7.25</v>
       </c>
       <c r="F93" t="n">
-        <v>7.641581535339355</v>
+        <v>6.538225650787354</v>
       </c>
       <c r="G93" t="n">
         <v>6.5</v>
       </c>
       <c r="H93" t="n">
-        <v>8.121402740478516</v>
+        <v>7.461682319641113</v>
       </c>
       <c r="I93" t="n">
         <v>8.25</v>
       </c>
       <c r="J93" t="n">
-        <v>9.580163955688477</v>
+        <v>8.66534423828125</v>
       </c>
       <c r="K93" t="n">
         <v>3.2</v>
       </c>
       <c r="L93" t="n">
-        <v>5.078912734985352</v>
+        <v>5.48291540145874</v>
       </c>
     </row>
     <row r="94">
@@ -3996,37 +3996,37 @@
         <v>7.8</v>
       </c>
       <c r="B94" t="n">
-        <v>7.887337207794189</v>
+        <v>7.128413200378418</v>
       </c>
       <c r="C94" t="n">
         <v>8.5</v>
       </c>
       <c r="D94" t="n">
-        <v>8.345524787902832</v>
+        <v>7.74470329284668</v>
       </c>
       <c r="E94" t="n">
         <v>8.75</v>
       </c>
       <c r="F94" t="n">
-        <v>7.711356163024902</v>
+        <v>7.059643268585205</v>
       </c>
       <c r="G94" t="n">
         <v>8.5</v>
       </c>
       <c r="H94" t="n">
-        <v>8.463108062744141</v>
+        <v>7.643054962158203</v>
       </c>
       <c r="I94" t="n">
         <v>9.75</v>
       </c>
       <c r="J94" t="n">
-        <v>9.88616943359375</v>
+        <v>8.806195259094238</v>
       </c>
       <c r="K94" t="n">
         <v>7</v>
       </c>
       <c r="L94" t="n">
-        <v>6.195265769958496</v>
+        <v>5.981082439422607</v>
       </c>
     </row>
     <row r="95">
@@ -4034,37 +4034,37 @@
         <v>5.4</v>
       </c>
       <c r="B95" t="n">
-        <v>7.368448734283447</v>
+        <v>6.888042449951172</v>
       </c>
       <c r="C95" t="n">
         <v>7.75</v>
       </c>
       <c r="D95" t="n">
-        <v>8.420705795288086</v>
+        <v>8.135640144348145</v>
       </c>
       <c r="E95" t="n">
         <v>6.75</v>
       </c>
       <c r="F95" t="n">
-        <v>6.326971054077148</v>
+        <v>6.301229953765869</v>
       </c>
       <c r="G95" t="n">
         <v>7.75</v>
       </c>
       <c r="H95" t="n">
-        <v>7.81074857711792</v>
+        <v>7.246776580810547</v>
       </c>
       <c r="I95" t="n">
         <v>8.75</v>
       </c>
       <c r="J95" t="n">
-        <v>9.250539779663086</v>
+        <v>8.680602073669434</v>
       </c>
       <c r="K95" t="n">
         <v>7.2</v>
       </c>
       <c r="L95" t="n">
-        <v>5.544222354888916</v>
+        <v>6.030008792877197</v>
       </c>
     </row>
     <row r="96">
@@ -4072,37 +4072,37 @@
         <v>6.8</v>
       </c>
       <c r="B96" t="n">
-        <v>5.54072093963623</v>
+        <v>6.154588222503662</v>
       </c>
       <c r="C96" t="n">
         <v>5.75</v>
       </c>
       <c r="D96" t="n">
-        <v>6.606734275817871</v>
+        <v>6.898335933685303</v>
       </c>
       <c r="E96" t="n">
         <v>8</v>
       </c>
       <c r="F96" t="n">
-        <v>6.224576473236084</v>
+        <v>6.445086479187012</v>
       </c>
       <c r="G96" t="n">
         <v>8.5</v>
       </c>
       <c r="H96" t="n">
-        <v>7.520999431610107</v>
+        <v>6.900492668151855</v>
       </c>
       <c r="I96" t="n">
         <v>8.25</v>
       </c>
       <c r="J96" t="n">
-        <v>9.013339042663574</v>
+        <v>8.098838806152344</v>
       </c>
       <c r="K96" t="n">
         <v>4.2</v>
       </c>
       <c r="L96" t="n">
-        <v>3.953857660293579</v>
+        <v>5.21104621887207</v>
       </c>
     </row>
     <row r="97">
@@ -4110,37 +4110,37 @@
         <v>6.4</v>
       </c>
       <c r="B97" t="n">
-        <v>4.892475128173828</v>
+        <v>6.09792423248291</v>
       </c>
       <c r="C97" t="n">
         <v>5.25</v>
       </c>
       <c r="D97" t="n">
-        <v>6.349906921386719</v>
+        <v>6.770230293273926</v>
       </c>
       <c r="E97" t="n">
         <v>8.5</v>
       </c>
       <c r="F97" t="n">
-        <v>5.721289157867432</v>
+        <v>6.18070125579834</v>
       </c>
       <c r="G97" t="n">
         <v>8.25</v>
       </c>
       <c r="H97" t="n">
-        <v>7.145201683044434</v>
+        <v>6.669586181640625</v>
       </c>
       <c r="I97" t="n">
         <v>7.75</v>
       </c>
       <c r="J97" t="n">
-        <v>8.038264274597168</v>
+        <v>7.806329727172852</v>
       </c>
       <c r="K97" t="n">
         <v>4.4</v>
       </c>
       <c r="L97" t="n">
-        <v>4.051013469696045</v>
+        <v>5.353646755218506</v>
       </c>
     </row>
     <row r="98">
@@ -4148,37 +4148,37 @@
         <v>5.6</v>
       </c>
       <c r="B98" t="n">
-        <v>5.965907573699951</v>
+        <v>6.358299732208252</v>
       </c>
       <c r="C98" t="n">
         <v>6.5</v>
       </c>
       <c r="D98" t="n">
-        <v>7.942649364471436</v>
+        <v>7.181126594543457</v>
       </c>
       <c r="E98" t="n">
         <v>6.75</v>
       </c>
       <c r="F98" t="n">
-        <v>9.805328369140625</v>
+        <v>6.539334774017334</v>
       </c>
       <c r="G98" t="n">
         <v>7.25</v>
       </c>
       <c r="H98" t="n">
-        <v>8.977329254150391</v>
+        <v>7.064602851867676</v>
       </c>
       <c r="I98" t="n">
         <v>8</v>
       </c>
       <c r="J98" t="n">
-        <v>9.797078132629395</v>
+        <v>8.308663368225098</v>
       </c>
       <c r="K98" t="n">
         <v>4.8</v>
       </c>
       <c r="L98" t="n">
-        <v>5.193070888519287</v>
+        <v>5.378078937530518</v>
       </c>
     </row>
     <row r="99">
@@ -4186,37 +4186,37 @@
         <v>5.2</v>
       </c>
       <c r="B99" t="n">
-        <v>5.763802051544189</v>
+        <v>6.147185325622559</v>
       </c>
       <c r="C99" t="n">
         <v>7.5</v>
       </c>
       <c r="D99" t="n">
-        <v>7.274401664733887</v>
+        <v>7.448803901672363</v>
       </c>
       <c r="E99" t="n">
         <v>6.25</v>
       </c>
       <c r="F99" t="n">
-        <v>3.707340002059937</v>
+        <v>5.371157169342041</v>
       </c>
       <c r="G99" t="n">
         <v>7.25</v>
       </c>
       <c r="H99" t="n">
-        <v>6.892543315887451</v>
+        <v>6.682040214538574</v>
       </c>
       <c r="I99" t="n">
         <v>8</v>
       </c>
       <c r="J99" t="n">
-        <v>8.87242603302002</v>
+        <v>8.285903930664062</v>
       </c>
       <c r="K99" t="n">
         <v>4.4</v>
       </c>
       <c r="L99" t="n">
-        <v>5.79918384552002</v>
+        <v>6.157204151153564</v>
       </c>
     </row>
     <row r="100">
@@ -4224,37 +4224,37 @@
         <v>5.2</v>
       </c>
       <c r="B100" t="n">
-        <v>5.025428771972656</v>
+        <v>5.159486293792725</v>
       </c>
       <c r="C100" t="n">
         <v>7</v>
       </c>
       <c r="D100" t="n">
-        <v>7.655043125152588</v>
+        <v>7.079944610595703</v>
       </c>
       <c r="E100" t="n">
         <v>3.75</v>
       </c>
       <c r="F100" t="n">
-        <v>4.041895389556885</v>
+        <v>5.108651638031006</v>
       </c>
       <c r="G100" t="n">
         <v>7.25</v>
       </c>
       <c r="H100" t="n">
-        <v>6.933610439300537</v>
+        <v>6.363460540771484</v>
       </c>
       <c r="I100" t="n">
         <v>8.25</v>
       </c>
       <c r="J100" t="n">
-        <v>8.864323616027832</v>
+        <v>8.153308868408203</v>
       </c>
       <c r="K100" t="n">
         <v>3.6</v>
       </c>
       <c r="L100" t="n">
-        <v>3.080431938171387</v>
+        <v>3.8807053565979</v>
       </c>
     </row>
     <row r="101">
@@ -4262,37 +4262,37 @@
         <v>7.4</v>
       </c>
       <c r="B101" t="n">
-        <v>6.882534027099609</v>
+        <v>6.599527359008789</v>
       </c>
       <c r="C101" t="n">
         <v>7.5</v>
       </c>
       <c r="D101" t="n">
-        <v>7.638582229614258</v>
+        <v>7.317038059234619</v>
       </c>
       <c r="E101" t="n">
         <v>6.75</v>
       </c>
       <c r="F101" t="n">
-        <v>5.908443927764893</v>
+        <v>5.673470020294189</v>
       </c>
       <c r="G101" t="n">
         <v>6.5</v>
       </c>
       <c r="H101" t="n">
-        <v>7.357544422149658</v>
+        <v>6.999340057373047</v>
       </c>
       <c r="I101" t="n">
         <v>9</v>
       </c>
       <c r="J101" t="n">
-        <v>9.109128952026367</v>
+        <v>8.097588539123535</v>
       </c>
       <c r="K101" t="n">
         <v>3.8</v>
       </c>
       <c r="L101" t="n">
-        <v>4.163222312927246</v>
+        <v>4.640586853027344</v>
       </c>
     </row>
     <row r="102">
@@ -4300,37 +4300,37 @@
         <v>6</v>
       </c>
       <c r="B102" t="n">
-        <v>5.917307376861572</v>
+        <v>6.612426280975342</v>
       </c>
       <c r="C102" t="n">
         <v>9</v>
       </c>
       <c r="D102" t="n">
-        <v>6.709271907806396</v>
+        <v>7.78333854675293</v>
       </c>
       <c r="E102" t="n">
         <v>5.25</v>
       </c>
       <c r="F102" t="n">
-        <v>5.562674045562744</v>
+        <v>6.195128917694092</v>
       </c>
       <c r="G102" t="n">
         <v>7</v>
       </c>
       <c r="H102" t="n">
-        <v>7.64351749420166</v>
+        <v>7.002900123596191</v>
       </c>
       <c r="I102" t="n">
         <v>9</v>
       </c>
       <c r="J102" t="n">
-        <v>9.135133743286133</v>
+        <v>8.495290756225586</v>
       </c>
       <c r="K102" t="n">
         <v>5.6</v>
       </c>
       <c r="L102" t="n">
-        <v>5.633567810058594</v>
+        <v>6.683294296264648</v>
       </c>
     </row>
     <row r="103">
@@ -4338,37 +4338,37 @@
         <v>6.8</v>
       </c>
       <c r="B103" t="n">
-        <v>7.850437164306641</v>
+        <v>7.615155220031738</v>
       </c>
       <c r="C103" t="n">
         <v>5.75</v>
       </c>
       <c r="D103" t="n">
-        <v>8.271240234375</v>
+        <v>8.024954795837402</v>
       </c>
       <c r="E103" t="n">
         <v>5.5</v>
       </c>
       <c r="F103" t="n">
-        <v>8.51154899597168</v>
+        <v>7.729663372039795</v>
       </c>
       <c r="G103" t="n">
         <v>6.25</v>
       </c>
       <c r="H103" t="n">
-        <v>8.422018051147461</v>
+        <v>7.907812118530273</v>
       </c>
       <c r="I103" t="n">
         <v>7.75</v>
       </c>
       <c r="J103" t="n">
-        <v>9.576870918273926</v>
+        <v>9.01255989074707</v>
       </c>
       <c r="K103" t="n">
         <v>4.4</v>
       </c>
       <c r="L103" t="n">
-        <v>6.91384744644165</v>
+        <v>7.215260982513428</v>
       </c>
     </row>
     <row r="104">
@@ -4376,37 +4376,37 @@
         <v>7.8</v>
       </c>
       <c r="B104" t="n">
-        <v>7.245685577392578</v>
+        <v>6.420841693878174</v>
       </c>
       <c r="C104" t="n">
         <v>7.5</v>
       </c>
       <c r="D104" t="n">
-        <v>8.221990585327148</v>
+        <v>7.475017547607422</v>
       </c>
       <c r="E104" t="n">
         <v>6</v>
       </c>
       <c r="F104" t="n">
-        <v>6.553049087524414</v>
+        <v>6.539867877960205</v>
       </c>
       <c r="G104" t="n">
         <v>8</v>
       </c>
       <c r="H104" t="n">
-        <v>7.990769386291504</v>
+        <v>7.364988327026367</v>
       </c>
       <c r="I104" t="n">
         <v>8.75</v>
       </c>
       <c r="J104" t="n">
-        <v>9.490385055541992</v>
+        <v>8.73011302947998</v>
       </c>
       <c r="K104" t="n">
         <v>4.8</v>
       </c>
       <c r="L104" t="n">
-        <v>5.069499969482422</v>
+        <v>4.709105968475342</v>
       </c>
     </row>
     <row r="105">
@@ -4414,37 +4414,37 @@
         <v>7</v>
       </c>
       <c r="B105" t="n">
-        <v>6.975052356719971</v>
+        <v>7.144705772399902</v>
       </c>
       <c r="C105" t="n">
         <v>7.5</v>
       </c>
       <c r="D105" t="n">
-        <v>8.09611988067627</v>
+        <v>8.196653366088867</v>
       </c>
       <c r="E105" t="n">
         <v>6.25</v>
       </c>
       <c r="F105" t="n">
-        <v>6.355329990386963</v>
+        <v>6.809135913848877</v>
       </c>
       <c r="G105" t="n">
         <v>6.75</v>
       </c>
       <c r="H105" t="n">
-        <v>7.891208171844482</v>
+        <v>7.628236770629883</v>
       </c>
       <c r="I105" t="n">
         <v>8</v>
       </c>
       <c r="J105" t="n">
-        <v>9.442742347717285</v>
+        <v>9.158084869384766</v>
       </c>
       <c r="K105" t="n">
         <v>4.4</v>
       </c>
       <c r="L105" t="n">
-        <v>7.397891044616699</v>
+        <v>7.189648151397705</v>
       </c>
     </row>
     <row r="106">
@@ -4452,37 +4452,37 @@
         <v>7.6</v>
       </c>
       <c r="B106" t="n">
-        <v>6.078989028930664</v>
+        <v>5.920436859130859</v>
       </c>
       <c r="C106" t="n">
         <v>9</v>
       </c>
       <c r="D106" t="n">
-        <v>7.467334747314453</v>
+        <v>6.950771808624268</v>
       </c>
       <c r="E106" t="n">
         <v>8.75</v>
       </c>
       <c r="F106" t="n">
-        <v>4.881608009338379</v>
+        <v>4.762016296386719</v>
       </c>
       <c r="G106" t="n">
         <v>8.25</v>
       </c>
       <c r="H106" t="n">
-        <v>7.298846244812012</v>
+        <v>6.297757148742676</v>
       </c>
       <c r="I106" t="n">
         <v>9</v>
       </c>
       <c r="J106" t="n">
-        <v>9.152235984802246</v>
+        <v>7.613051414489746</v>
       </c>
       <c r="K106" t="n">
         <v>5.8</v>
       </c>
       <c r="L106" t="n">
-        <v>4.698545932769775</v>
+        <v>4.98308801651001</v>
       </c>
     </row>
     <row r="107">
@@ -4490,37 +4490,37 @@
         <v>6.2</v>
       </c>
       <c r="B107" t="n">
-        <v>7.294974327087402</v>
+        <v>7.693150043487549</v>
       </c>
       <c r="C107" t="n">
         <v>8</v>
       </c>
       <c r="D107" t="n">
-        <v>7.894452571868896</v>
+        <v>8.144102096557617</v>
       </c>
       <c r="E107" t="n">
         <v>6.75</v>
       </c>
       <c r="F107" t="n">
-        <v>8.226079940795898</v>
+        <v>7.786516666412354</v>
       </c>
       <c r="G107" t="n">
         <v>7.5</v>
       </c>
       <c r="H107" t="n">
-        <v>8.292427062988281</v>
+        <v>7.879344940185547</v>
       </c>
       <c r="I107" t="n">
         <v>9</v>
       </c>
       <c r="J107" t="n">
-        <v>9.460351943969727</v>
+        <v>9.009666442871094</v>
       </c>
       <c r="K107" t="n">
         <v>5.2</v>
       </c>
       <c r="L107" t="n">
-        <v>6.81436014175415</v>
+        <v>7.636536121368408</v>
       </c>
     </row>
     <row r="108">
@@ -4528,37 +4528,37 @@
         <v>5.4</v>
       </c>
       <c r="B108" t="n">
-        <v>6.265511035919189</v>
+        <v>5.759174823760986</v>
       </c>
       <c r="C108" t="n">
         <v>7.83</v>
       </c>
       <c r="D108" t="n">
-        <v>6.944547653198242</v>
+        <v>6.858949661254883</v>
       </c>
       <c r="E108" t="n">
         <v>8.5</v>
       </c>
       <c r="F108" t="n">
-        <v>6.277963638305664</v>
+        <v>6.420100212097168</v>
       </c>
       <c r="G108" t="n">
         <v>7.25</v>
       </c>
       <c r="H108" t="n">
-        <v>8.019704818725586</v>
+        <v>6.852261543273926</v>
       </c>
       <c r="I108" t="n">
         <v>9.5</v>
       </c>
       <c r="J108" t="n">
-        <v>9.666303634643555</v>
+        <v>8.248249053955078</v>
       </c>
       <c r="K108" t="n">
         <v>5.4</v>
       </c>
       <c r="L108" t="n">
-        <v>4.111627101898193</v>
+        <v>4.679561614990234</v>
       </c>
     </row>
     <row r="109">
@@ -4566,37 +4566,37 @@
         <v>6.8</v>
       </c>
       <c r="B109" t="n">
-        <v>8.261218070983887</v>
+        <v>6.006760120391846</v>
       </c>
       <c r="C109" t="n">
         <v>7.5</v>
       </c>
       <c r="D109" t="n">
-        <v>8.213987350463867</v>
+        <v>6.526628017425537</v>
       </c>
       <c r="E109" t="n">
         <v>5</v>
       </c>
       <c r="F109" t="n">
-        <v>5.765312194824219</v>
+        <v>5.708151340484619</v>
       </c>
       <c r="G109" t="n">
         <v>8</v>
       </c>
       <c r="H109" t="n">
-        <v>7.651219367980957</v>
+        <v>6.68074893951416</v>
       </c>
       <c r="I109" t="n">
         <v>8</v>
       </c>
       <c r="J109" t="n">
-        <v>9.607850074768066</v>
+        <v>7.692723274230957</v>
       </c>
       <c r="K109" t="n">
         <v>4.8</v>
       </c>
       <c r="L109" t="n">
-        <v>5.278923034667969</v>
+        <v>4.159801483154297</v>
       </c>
     </row>
     <row r="110">
@@ -4604,37 +4604,37 @@
         <v>6.8</v>
       </c>
       <c r="B110" t="n">
-        <v>7.628880977630615</v>
+        <v>6.348158359527588</v>
       </c>
       <c r="C110" t="n">
         <v>7</v>
       </c>
       <c r="D110" t="n">
-        <v>8.338343620300293</v>
+        <v>7.805360317230225</v>
       </c>
       <c r="E110" t="n">
         <v>6.25</v>
       </c>
       <c r="F110" t="n">
-        <v>7.234930038452148</v>
+        <v>6.359800338745117</v>
       </c>
       <c r="G110" t="n">
         <v>7.5</v>
       </c>
       <c r="H110" t="n">
-        <v>8.292932510375977</v>
+        <v>7.274850845336914</v>
       </c>
       <c r="I110" t="n">
         <v>9.25</v>
       </c>
       <c r="J110" t="n">
-        <v>9.548808097839355</v>
+        <v>8.839690208435059</v>
       </c>
       <c r="K110" t="n">
         <v>4.4</v>
       </c>
       <c r="L110" t="n">
-        <v>5.43088436126709</v>
+        <v>4.893532276153564</v>
       </c>
     </row>
     <row r="111">
@@ -4642,37 +4642,37 @@
         <v>5.4</v>
       </c>
       <c r="B111" t="n">
-        <v>6.923905849456787</v>
+        <v>5.625584602355957</v>
       </c>
       <c r="C111" t="n">
         <v>5</v>
       </c>
       <c r="D111" t="n">
-        <v>7.940593242645264</v>
+        <v>6.384807586669922</v>
       </c>
       <c r="E111" t="n">
         <v>3.75</v>
       </c>
       <c r="F111" t="n">
-        <v>7.353766918182373</v>
+        <v>5.366830348968506</v>
       </c>
       <c r="G111" t="n">
         <v>6.5</v>
       </c>
       <c r="H111" t="n">
-        <v>8.155315399169922</v>
+        <v>6.456010818481445</v>
       </c>
       <c r="I111" t="n">
         <v>7.25</v>
       </c>
       <c r="J111" t="n">
-        <v>9.754155158996582</v>
+        <v>7.57292652130127</v>
       </c>
       <c r="K111" t="n">
         <v>3.4</v>
       </c>
       <c r="L111" t="n">
-        <v>4.394140720367432</v>
+        <v>3.630935192108154</v>
       </c>
     </row>
     <row r="112">
@@ -4680,37 +4680,37 @@
         <v>5.2</v>
       </c>
       <c r="B112" t="n">
-        <v>7.284822940826416</v>
+        <v>7.319154262542725</v>
       </c>
       <c r="C112" t="n">
         <v>5.25</v>
       </c>
       <c r="D112" t="n">
-        <v>8.287363052368164</v>
+        <v>7.760114669799805</v>
       </c>
       <c r="E112" t="n">
         <v>6.75</v>
       </c>
       <c r="F112" t="n">
-        <v>6.857174873352051</v>
+        <v>7.154462814331055</v>
       </c>
       <c r="G112" t="n">
         <v>6</v>
       </c>
       <c r="H112" t="n">
-        <v>8.110116958618164</v>
+        <v>7.704370498657227</v>
       </c>
       <c r="I112" t="n">
         <v>8.75</v>
       </c>
       <c r="J112" t="n">
-        <v>9.748799324035645</v>
+        <v>8.778153419494629</v>
       </c>
       <c r="K112" t="n">
         <v>5</v>
       </c>
       <c r="L112" t="n">
-        <v>6.042251110076904</v>
+        <v>6.243493556976318</v>
       </c>
     </row>
     <row r="113">
@@ -4718,37 +4718,37 @@
         <v>6.6</v>
       </c>
       <c r="B113" t="n">
-        <v>7.019556045532227</v>
+        <v>6.988736152648926</v>
       </c>
       <c r="C113" t="n">
         <v>7.75</v>
       </c>
       <c r="D113" t="n">
-        <v>7.396326065063477</v>
+        <v>7.501958847045898</v>
       </c>
       <c r="E113" t="n">
         <v>6.5</v>
       </c>
       <c r="F113" t="n">
-        <v>7.226064205169678</v>
+        <v>6.43302059173584</v>
       </c>
       <c r="G113" t="n">
         <v>7.5</v>
       </c>
       <c r="H113" t="n">
-        <v>8.628643989562988</v>
+        <v>7.37983226776123</v>
       </c>
       <c r="I113" t="n">
         <v>9</v>
       </c>
       <c r="J113" t="n">
-        <v>9.818388938903809</v>
+        <v>8.713344573974609</v>
       </c>
       <c r="K113" t="n">
         <v>7.4</v>
       </c>
       <c r="L113" t="n">
-        <v>7.659043312072754</v>
+        <v>7.437478542327881</v>
       </c>
     </row>
     <row r="114">
@@ -4756,37 +4756,37 @@
         <v>6.4</v>
       </c>
       <c r="B114" t="n">
-        <v>7.359386444091797</v>
+        <v>7.158729553222656</v>
       </c>
       <c r="C114" t="n">
         <v>6.25</v>
       </c>
       <c r="D114" t="n">
-        <v>8.683292388916016</v>
+        <v>8.721469879150391</v>
       </c>
       <c r="E114" t="n">
         <v>4.5</v>
       </c>
       <c r="F114" t="n">
-        <v>7.081867218017578</v>
+        <v>6.544190406799316</v>
       </c>
       <c r="G114" t="n">
         <v>7.25</v>
       </c>
       <c r="H114" t="n">
-        <v>8.033417701721191</v>
+        <v>7.342158317565918</v>
       </c>
       <c r="I114" t="n">
         <v>8.25</v>
       </c>
       <c r="J114" t="n">
-        <v>9.560315132141113</v>
+        <v>8.960542678833008</v>
       </c>
       <c r="K114" t="n">
         <v>4.8</v>
       </c>
       <c r="L114" t="n">
-        <v>7.611528873443604</v>
+        <v>7.056985378265381</v>
       </c>
     </row>
     <row r="115">
@@ -4794,37 +4794,37 @@
         <v>5.4</v>
       </c>
       <c r="B115" t="n">
-        <v>4.900914192199707</v>
+        <v>5.54594087600708</v>
       </c>
       <c r="C115" t="n">
         <v>8</v>
       </c>
       <c r="D115" t="n">
-        <v>6.84788179397583</v>
+        <v>7.315759658813477</v>
       </c>
       <c r="E115" t="n">
         <v>3.25</v>
       </c>
       <c r="F115" t="n">
-        <v>3.553793907165527</v>
+        <v>4.668940544128418</v>
       </c>
       <c r="G115" t="n">
         <v>6</v>
       </c>
       <c r="H115" t="n">
-        <v>6.759749889373779</v>
+        <v>6.38115119934082</v>
       </c>
       <c r="I115" t="n">
         <v>7.25</v>
       </c>
       <c r="J115" t="n">
-        <v>7.986633777618408</v>
+        <v>8.077763557434082</v>
       </c>
       <c r="K115" t="n">
         <v>3.2</v>
       </c>
       <c r="L115" t="n">
-        <v>3.315967082977295</v>
+        <v>4.180121421813965</v>
       </c>
     </row>
     <row r="116">
@@ -4832,37 +4832,37 @@
         <v>6.8</v>
       </c>
       <c r="B116" t="n">
-        <v>6.480620861053467</v>
+        <v>6.520037174224854</v>
       </c>
       <c r="C116" t="n">
         <v>7.5</v>
       </c>
       <c r="D116" t="n">
-        <v>7.825571060180664</v>
+        <v>7.440372467041016</v>
       </c>
       <c r="E116" t="n">
         <v>5.25</v>
       </c>
       <c r="F116" t="n">
-        <v>5.765176296234131</v>
+        <v>5.72885274887085</v>
       </c>
       <c r="G116" t="n">
         <v>6.25</v>
       </c>
       <c r="H116" t="n">
-        <v>7.349735260009766</v>
+        <v>6.929596900939941</v>
       </c>
       <c r="I116" t="n">
         <v>8.25</v>
       </c>
       <c r="J116" t="n">
-        <v>9.233284950256348</v>
+        <v>8.143621444702148</v>
       </c>
       <c r="K116" t="n">
         <v>4.8</v>
       </c>
       <c r="L116" t="n">
-        <v>4.462663173675537</v>
+        <v>4.95768928527832</v>
       </c>
     </row>
     <row r="117">
@@ -4870,37 +4870,37 @@
         <v>7.2</v>
       </c>
       <c r="B117" t="n">
-        <v>6.986042499542236</v>
+        <v>5.58061695098877</v>
       </c>
       <c r="C117" t="n">
         <v>6.25</v>
       </c>
       <c r="D117" t="n">
-        <v>7.637721538543701</v>
+        <v>7.270445346832275</v>
       </c>
       <c r="E117" t="n">
         <v>4.25</v>
       </c>
       <c r="F117" t="n">
-        <v>6.076982975006104</v>
+        <v>4.722487449645996</v>
       </c>
       <c r="G117" t="n">
         <v>5.75</v>
       </c>
       <c r="H117" t="n">
-        <v>7.732850074768066</v>
+        <v>6.293488502502441</v>
       </c>
       <c r="I117" t="n">
         <v>8.75</v>
       </c>
       <c r="J117" t="n">
-        <v>9.333708763122559</v>
+        <v>7.886063575744629</v>
       </c>
       <c r="K117" t="n">
         <v>4.6</v>
       </c>
       <c r="L117" t="n">
-        <v>4.94586706161499</v>
+        <v>4.106090545654297</v>
       </c>
     </row>
     <row r="118">
@@ -4908,37 +4908,37 @@
         <v>2.8</v>
       </c>
       <c r="B118" t="n">
-        <v>6.026028633117676</v>
+        <v>4.950181484222412</v>
       </c>
       <c r="C118" t="n">
         <v>6.25</v>
       </c>
       <c r="D118" t="n">
-        <v>7.601352214813232</v>
+        <v>7.037624359130859</v>
       </c>
       <c r="E118" t="n">
         <v>4.75</v>
       </c>
       <c r="F118" t="n">
-        <v>4.124805927276611</v>
+        <v>4.194327354431152</v>
       </c>
       <c r="G118" t="n">
         <v>5.75</v>
       </c>
       <c r="H118" t="n">
-        <v>7.409684181213379</v>
+        <v>5.76133918762207</v>
       </c>
       <c r="I118" t="n">
         <v>6.75</v>
       </c>
       <c r="J118" t="n">
-        <v>9.156481742858887</v>
+        <v>7.512229919433594</v>
       </c>
       <c r="K118" t="n">
         <v>3</v>
       </c>
       <c r="L118" t="n">
-        <v>2.501696586608887</v>
+        <v>3.697380304336548</v>
       </c>
     </row>
     <row r="119">
@@ -4946,37 +4946,37 @@
         <v>7.6</v>
       </c>
       <c r="B119" t="n">
-        <v>7.276134967803955</v>
+        <v>7.011067390441895</v>
       </c>
       <c r="C119" t="n">
         <v>8.75</v>
       </c>
       <c r="D119" t="n">
-        <v>7.551286697387695</v>
+        <v>7.674047470092773</v>
       </c>
       <c r="E119" t="n">
         <v>6</v>
       </c>
       <c r="F119" t="n">
-        <v>7.589846611022949</v>
+        <v>7.063673496246338</v>
       </c>
       <c r="G119" t="n">
         <v>8.5</v>
       </c>
       <c r="H119" t="n">
-        <v>8.469683647155762</v>
+        <v>7.551028251647949</v>
       </c>
       <c r="I119" t="n">
         <v>8</v>
       </c>
       <c r="J119" t="n">
-        <v>9.723403930664062</v>
+        <v>8.742687225341797</v>
       </c>
       <c r="K119" t="n">
         <v>6</v>
       </c>
       <c r="L119" t="n">
-        <v>6.036519527435303</v>
+        <v>6.056448936462402</v>
       </c>
     </row>
     <row r="120">
@@ -4984,37 +4984,37 @@
         <v>5</v>
       </c>
       <c r="B120" t="n">
-        <v>6.326007843017578</v>
+        <v>5.304442882537842</v>
       </c>
       <c r="C120" t="n">
         <v>6.5</v>
       </c>
       <c r="D120" t="n">
-        <v>7.793174743652344</v>
+        <v>7.231624603271484</v>
       </c>
       <c r="E120" t="n">
         <v>4</v>
       </c>
       <c r="F120" t="n">
-        <v>4.541763305664062</v>
+        <v>4.502236843109131</v>
       </c>
       <c r="G120" t="n">
         <v>6.5</v>
       </c>
       <c r="H120" t="n">
-        <v>7.188253402709961</v>
+        <v>6.148149490356445</v>
       </c>
       <c r="I120" t="n">
         <v>8.25</v>
       </c>
       <c r="J120" t="n">
-        <v>8.805672645568848</v>
+        <v>7.850893974304199</v>
       </c>
       <c r="K120" t="n">
         <v>2.8</v>
       </c>
       <c r="L120" t="n">
-        <v>4.341978549957275</v>
+        <v>3.746880054473877</v>
       </c>
     </row>
     <row r="121">
@@ -5022,37 +5022,37 @@
         <v>7.8</v>
       </c>
       <c r="B121" t="n">
-        <v>7.175027370452881</v>
+        <v>6.598543643951416</v>
       </c>
       <c r="C121" t="n">
         <v>8</v>
       </c>
       <c r="D121" t="n">
-        <v>8.574465751647949</v>
+        <v>8.131117820739746</v>
       </c>
       <c r="E121" t="n">
         <v>8.5</v>
       </c>
       <c r="F121" t="n">
-        <v>7.173058032989502</v>
+        <v>5.949610233306885</v>
       </c>
       <c r="G121" t="n">
         <v>8.25</v>
       </c>
       <c r="H121" t="n">
-        <v>8.037066459655762</v>
+        <v>7.283738136291504</v>
       </c>
       <c r="I121" t="n">
         <v>8.25</v>
       </c>
       <c r="J121" t="n">
-        <v>9.588871955871582</v>
+        <v>8.842799186706543</v>
       </c>
       <c r="K121" t="n">
         <v>7</v>
       </c>
       <c r="L121" t="n">
-        <v>5.610112190246582</v>
+        <v>4.853071689605713</v>
       </c>
     </row>
   </sheetData>
